--- a/Тест кейс сайт Собаседник 240423.xlsx
+++ b/Тест кейс сайт Собаседник 240423.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\ProjectSt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31986A3C-C55D-419A-97F6-C7AD39F50CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E490BF-E9EF-4EC4-967F-82A10CC2028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29025" yWindow="210" windowWidth="28140" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="3" r:id="rId1"/>
     <sheet name="Worksheet" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="553">
   <si>
     <t>ID</t>
   </si>
@@ -458,16 +459,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Открываем DevTools
-2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле.
-4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
-5.Водим в поле знаки препинания "","" ""."" "";"" ""!"" ""?"".
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
-7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
-</t>
-  </si>
-  <si>
     <t>C24</t>
   </si>
   <si>
@@ -564,9 +555,6 @@
   </si>
   <si>
     <t>Корректное распределение текста по строкам - переход текста на новую строку</t>
-  </si>
-  <si>
-    <t>1. При вводе в текстовое поле текста, превышающего длину поля, автоматически осуществляется переход текста на новую строку.</t>
   </si>
   <si>
     <t xml:space="preserve">1. На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле. 
@@ -683,41 +671,6 @@
 </t>
   </si>
   <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>Обработка перевода строки для длинного текста</t>
-  </si>
-  <si>
-    <t>1.Вставленный  в поле текст автоматически переводится на новую строку в соответствии с размером поля.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Открываем ресурс Lorem Ipsum https://ru.lipsum.com/
-2.На ресурсе  копируем в буфер обмена текст три абзаца.
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле.
-4.Вводим текст в поле нажатием сочетаний клавиш ""Ctrl-V"".
-5.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>Перевод второй половины текста на новую строку с помощью многократного нажатия клавиши ""Пробел""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.При вводе в середину текста клавишей ""Пробел"" пробелов, при увеличении длинны текстовой строки происходит перенос текста на новую строку </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Открываем ресурс Lorem Ipsum https://ru.lipsum.com/
-2.На ресурсе  копируем в буфер обмена текст три абзаца.
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле.
-4.Вводим текст в поле нажатием сочетаний клавиш ""Ctrl-V"".
-5.Ставим курсор в середину текста и клавишей ""Пробел"" вставляем пробелы, увеличивая длину текстовой строки до переноса на другую строку.
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.</t>
-  </si>
-  <si>
     <t>C37</t>
   </si>
   <si>
@@ -850,17 +803,6 @@
 2.При нажатии на элемент управления блока, осуществляющий отправку данных, появляется сообщение об ошибке заполнения поля, значения не сохраняются, поле очищается.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1.Открываем DevTools 
-2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона. 
-4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
-5.Водим в поле телефонный номер буквами русского алфавита: АБВДЭЮЯ. 
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса. 
-7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений. 
-</t>
-  </si>
-  <si>
     <t>C93</t>
   </si>
   <si>
@@ -883,16 +825,6 @@
     <t>Ввод номера телефона, начиная с буквы латинского алфавита</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Открываем DevTools
-2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона.
-4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
-5.Водим в поле телефонный номер начиная с буквы латинского алфавита A9653232222.
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
-7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
-</t>
-  </si>
-  <si>
     <t>C95</t>
   </si>
   <si>
@@ -983,16 +915,6 @@
     <t>Длинна телефонного номера менее 11 цифр</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Открываем DevTools
-2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона.
-4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
-5.Вводим в поле телефонный номер состоящий из 10 цифр: 9653232222.
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
-7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
-</t>
-  </si>
-  <si>
     <t>C48</t>
   </si>
   <si>
@@ -1204,20 +1126,7 @@
 </t>
   </si>
   <si>
-    <t>C61</t>
-  </si>
-  <si>
     <t>Email с номерной доменной частью email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Открываем DevTools
-2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
-3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
-4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
-5.Водим в поле e-mail,  с номерной доменной частью email: email@123.123.123.123
-6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
-7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
-</t>
   </si>
   <si>
     <t>C62</t>
@@ -1810,12 +1719,6 @@
     <t>2.1.2.4</t>
   </si>
   <si>
-    <t>2.1.2.5</t>
-  </si>
-  <si>
-    <t>2.1.2.6</t>
-  </si>
-  <si>
     <t>2.2.1.1</t>
   </si>
   <si>
@@ -2016,12 +1919,6 @@
     <t xml:space="preserve">1.В ""Футере"" есть элементы.
 2.Для элементов ""Футера"" ""Поля""; ""Кнопки""; ""Иконки""; ""Ссылки"" есть функциональный
 ""бэкэнд"" </t>
-  </si>
-  <si>
-    <t>С6-1</t>
-  </si>
-  <si>
-    <t>С85-1</t>
   </si>
   <si>
     <t xml:space="preserve">Появляется ошибка в "Consol" DevTools при открытии стартовой страницы:
@@ -2142,12 +2039,6 @@
     <t>"Логотип" сайта "Собаседник", размещенный на странице "ПРОВЕРЬ СВОЙ УРОВЕНЬ" отличается от "Логотипа" сайта "Собаседник", размещенного на "Стартовой странице"</t>
   </si>
   <si>
-    <t>C85-2</t>
-  </si>
-  <si>
-    <t>C85-3</t>
-  </si>
-  <si>
     <t>Страница "СОВЕТЫ" не открывается при нажатии на элемент управления в навигационной панели "СОВЕТЫ".  Проверка наличия "Логотипа" невозможна</t>
   </si>
   <si>
@@ -2190,15 +2081,6 @@
 2.При нажатии левой кнопкой мыши на ""Логотип"" на странице "СОВЕТЫ" осуществляется переход на "Стартовую страницу". </t>
   </si>
   <si>
-    <t>С86-1</t>
-  </si>
-  <si>
-    <t>С86-2</t>
-  </si>
-  <si>
-    <t>С86-3</t>
-  </si>
-  <si>
     <t>1. Щелкаем левой кнопкой мыши по элементу навигационной панели "СТАТЬИ", открываем  страницу ""СТАТЬИ"". 
 2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"".
 3.Щелкаем левой кнопкой мыши по "Логотипу" на странице "СТАТЬИ".
@@ -2212,12 +2094,430 @@
 4.В DevTools проверяем наличие ссылки на стартовую страницу в коде "Логотипа".
 5.Щелчком левой кнопки мыши по ссылке в блоке "Логотипа" в DevTools переходим на ""Стартовую страницу.</t>
   </si>
+  <si>
+    <t>Ожидаемый результат1+T:AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1."Логотип" сайта "Собаседник" на странице "СТАТЬИ" не  содержит ссылку на "Стартовую страницу". 
+2.При нажатии левой кнопкой мыши на "Логотип" на странице "СТАТЬИ"  не осуществляется переход на "Стартовую страницу". 
+ </t>
+  </si>
+  <si>
+    <t>1."Логотип" сайта "Собаседник" на странице "ПРОВЕРЬ СВОЙ УРОВЕНЬ" не  содержит ссылку на "Стартовую страницу". 
+2.При нажатии левой кнопкой мыши на "Логотип" на странице "ПРОВЕРЬ СВОЙ УРОВЕНЬ"  не осуществляется переход на "Стартовую страницу"</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/12MG3wyU8wGbVr
+Ссылка на изображение: https://qahacking.ru/templates/yootheme/cache/l1-4b4601a0.webp</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/bmoZ8lyUl700Kr
+Фактическая ссылка https://qahacking.ru/templates/yootheme/cache/l1-4b4601a0.webp</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/zANEOw7sw8Ong2</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/52aqLwWh0gxRg2</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/nu/</t>
+  </si>
+  <si>
+    <t>Валидатор стилей https://jigsaw.w3.org/css-validator/</t>
+  </si>
+  <si>
+    <t>Проверка ссылок https://validator.w3.org/checklink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кроссбраузерность: </t>
+  </si>
+  <si>
+    <t>1) https://browsershots.org/</t>
+  </si>
+  <si>
+    <t>2) https://www.browserstack.com/</t>
+  </si>
+  <si>
+    <t>3) https://netrenderer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перфоменс: </t>
+  </si>
+  <si>
+    <t>1) https://www.webpagetest.org/</t>
+  </si>
+  <si>
+    <t>2)https://pagespeed.web.dev/</t>
+  </si>
+  <si>
+    <t>3) https://gtmetrix.com/  - работает с ВПН</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/KAxGW10UwvLoy2
+Фактическая ссылка
+https://gradebuilder.tech/</t>
+  </si>
+  <si>
+    <t>1.На странице ""ПРОВЕРЬ СВОЙ УРОВЕНЬ"" ""Логотип"" сайта ""Собаседник"" содержит ссылку на ""Стартовую страницу"" - https://qahacking.guru/. 
+2.При нажатии левой кнопкой мыши на ""Логотип"" на странице ""ПРОВЕРЬ СВОЙ УРОВЕНЬ"" осуществляется переход на ""Стартовую страницу"".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.На странице "СТАТЬИ" "Логотип" сайта "Собаседник" содержит ссылку на "Стартовую страницу"https://qahacking.guru/. 
+2.При нажатии левой кнопкой мыши на""Логотип" на странице ""СТАТЬИ" осуществляется переход на "Стартовую страницу". 
+ </t>
+  </si>
+  <si>
+    <t>http://joxi.ru/eAOpnw8HG6nXpr
+Ссылка на изображение: 
+https://gradebuilder.tech/wp-content/uploads/2022/12/GradeBuilder-218x54.png</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/v29jkgbcjRqo8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.В "Consol"  DevTools появляетсят сообщения об ошибках после открытия страницы сайта "ПРОВЕРЬ СЕБЯ" </t>
+  </si>
+  <si>
+    <t>1.Страница сайта "СОВЕТЫ" открылась.
+2.После открытия страницы сайта "СОВЕТЫ", в "Consol" DevTools отсутствуют сообщения об ошибках</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/52aqLwWh0gxOV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Страница сайта "СОВЕТЫ" не открылась после щелчка левой кнопкой мышки по элементу управления "СОВЕТЫ" на панели навигационной панели. В бэкенде для элемента нет ссылки.
+</t>
+  </si>
+  <si>
+    <t>1.Нажатием курсора на элементе навигационной панели ""СОВЕТЫ"" открываем страницу ""СОВЕТЫ""
+2.Открываем DevTools
+3.Открываем в DevTools закладку в ""Console""</t>
+  </si>
+  <si>
+    <t>1.Нажатием курсора на элементе навигационной панели ""ПРОВЕРЬ СЕБЯ"" открываем страницу ""ПРОВЕРЬ СЕБЯ""
+2.Открываем DevTools
+3.Открываем в DevTools закладку в ""Console""
+4.Проверяем отсутствие сообщений об ошибках</t>
+  </si>
+  <si>
+    <t>Br10</t>
+  </si>
+  <si>
+    <t>Br12</t>
+  </si>
+  <si>
+    <t>Br86-2</t>
+  </si>
+  <si>
+    <t>Br6-1</t>
+  </si>
+  <si>
+    <t>Br85-1</t>
+  </si>
+  <si>
+    <t>Br85-2</t>
+  </si>
+  <si>
+    <t>Br86-1</t>
+  </si>
+  <si>
+    <t>Br86-3</t>
+  </si>
+  <si>
+    <t>Br85-3</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/Q2KJawkcgyG44m</t>
+  </si>
+  <si>
+    <t>1.При потере полем фокуса появляется сообщение о необходимости заполнения поля. 
+2.При нажатии на элемент управления блока, осуществляющий отправку данных, появляется сообщение о необходимости заполнения поля.
+3.При повторном входе в текстовое поле поле не содержит введенных ранее знаков.
+4.При повторном входе в поле курсор автоматически устанавливается в крайнее левое положение начала поля</t>
+  </si>
+  <si>
+    <t>1.При потере полем фокуса введенные перед текстом пробелы удаляются, текст передвигается к левой границе поля.
+2.При нажатии на элемент управления блока, осуществляющий отправку данных, введенные перед текстом пробелы удаляются, текст отправляется без пробелов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Не  появляется сообщение о необходимости заполнения поля "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице"  с пустым значением при потере фокуса.
+2.Не  появляется сообщение о необходимости заполнения поля "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице"  с пустым значением при нажатии на элемент управления блока, осуществляющий отправку данных </t>
+  </si>
+  <si>
+    <t>1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Выбираем элемент на странице для проверки"".""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле ("Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице")
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Не вводя никаких символов переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+6.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений</t>
+  </si>
+  <si>
+    <t>1. Не  появляется сообщение о необходимости заполнения поля "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице" с введенными только пробелами при потере фокуса
+2.Не  появляется сообщение о необходимости заполнения поля "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице"  с введенными только пробелами  при нажатии на элемент управления блока, осуществляющий отправку данных.
+3.Поле не очищается. При повторном входе в текстовое поле поле содержит введенные ранее знаки.
+4.При повторном входе в поле курсор не  устанавливается в крайнее левое положение начала поля</t>
+  </si>
+  <si>
+    <t>1.Открываем DevTools 
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле("Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице") 
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
+5.Водим в поле пять пробелов.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса. 
+6.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+7.Повторно щелчком левой кнопки мышки, ставим курсор в текстовое поле.</t>
+  </si>
+  <si>
+    <t>1.Открываем DevTools 
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле ("Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице" )
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
+5.Водим в поле пять пробелов перед текстом и далее текст.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Повторно щелчком левой кнопки мышки, ставим курсор в текстовое поле.
+8.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.</t>
+  </si>
+  <si>
+    <t>1.Открываем DevTools 
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле ("Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице" )
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
+5.Водим в поле пять пробелов после текста. 
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса. 
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений. 
+8.Повторно щелчком левой кнопки мышки, ставим курсор в текстовое поле.</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/BA03KxqIqvKX52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Не удаляются введенные перед текстом пробелы  в поле "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице", текст не передвигается к левой границе поля при потере полем фокуса 
+2.Не удаляются введенные перед текстом пробелы  в поле "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице", текст не передвигается к левой границе поля при нажатии на элемент управления блока, осуществляющий отправку данных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Не удаляются введенные после текста пробелы в поле "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице", текст не передвигается к левой границе текста  при потере полем фокуса 
+2.Не удаляются введенные после текста пробелы в поле "Subject" в форме  "Спрсите нас о собачках" на "Стартовой странице", текст не передвигается к левой границе текст при нажатии на элемент управления блока, осуществляющий отправку данных. </t>
+  </si>
+  <si>
+    <t>http://joxi.ru/Y2LgRw1hvMVYPm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле слова и  знаки препинания "","" ""."" "";"" ""!"" ""?"".
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>1. На странице сайта, щелчком левой кнопки мышки, ставим курсор в текстовое поле  ("Subject" в форме  "Спросите нас о собачках" на "Стартовой странице").
+2.Вводим текст, превышающий длину поля.</t>
+  </si>
+  <si>
+    <t>1.Не осуществляется автоматический переход текста на новую строку в поле "Subject" в форме  "Спросите нас о собачках" на "Стартовой странице" при превышении длинны текста размера поля на странице</t>
+  </si>
+  <si>
+    <t>1. При вводе в текстовое поле текста, превышающего по длине размер  поля, автоматически осуществляется переход текста на новую строку.</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/12MG3wyU8wxzqr</t>
+  </si>
+  <si>
+    <t>1.При потере фокуса не появляется сообщение о необходимости заполнения поля.
+2.При нажатии на элемент управления блока, осуществляющий отправку данных не  появляется сообщение о необходимости заполнения поля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Открываем DevTools 
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона. 
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
+5.Водим в поле телефонный номер буквами русского алфавита: АБВгДееРЭЮЯ. 
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса. 
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений. 
+</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/bmoZ8lyUl7EB9r</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита АБВгДееРЭЮЯ  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита АБВгДееРЭЮЯ  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  ABCDXYZ  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  ABCDXYZ  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools 
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it"" 
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона (поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице"). 
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button). 
+5.Водим в поле телефонный номер буквами русского алфавита: АБВгДееРЭЮЯ. 
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса. 
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений. </t>
+  </si>
+  <si>
+    <t>1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона (поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице").
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле телефонный номер буквами русского алфавита: ABCDXYZ.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле телефонный номер начиная с буквы латинского алфавита F9653232222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  F9653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  F9653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона (поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице").
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле телефонный номер начиная с буквы латинского алфавита F9653232222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  А9653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона буквами русского алфавита  А9653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона спецсимволами  ~@#$%^&amp;*_|=\{}[]:”;’&amp;lt;&amp;gt;?/®©£¥¢¦§«»€  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона  спецсимволами   ~@#$%^&amp;*_|=\{}[]:”;’&amp;lt;&amp;gt;?/®©£¥¢¦§«»€2  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона(поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице")
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле телефонный номер начиная с буквы русского алфавита A9653232222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона (поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице")
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Вводим в поле телефонный номер специальными символами: `~@#$%^&amp;*_|=\{}[]:”;’&amp;lt;&amp;gt;?/®©£¥¢¦§«»€.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/l2ZagwzhVR3BQm</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/Dr80xqzcDJElOr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона (поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице")
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Вводим в поле телефонный номер с отрицательным числом: -89653232222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/l2ZagwzhVR3MQm</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/vAW6NBECRBDQ72</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона    с разделителем "","": 89,653232222. в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона  с разделителем "","": 89,653232222.  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона   с разделителем ""."": 89.653232222 в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона с разделителем ""."": 89.653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода номера телефона   -89653232222. в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода номера телефона  с отрицательным числом: -89653232222.  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Вводим в поле телефонный номер, состоящий из 10 цифр: 9653232222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода  номер, состоящий из 10 цифр: 9653232222 в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода  номер, состоящий из 10 цифр: 9653232222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/5mdjaDKcJa5QKA</t>
+  </si>
+  <si>
+    <t>1.Не появляется сообщение об ошибке после  ввода  номер, состоящий из 12 цифр: 896532322222 в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при потере полем фокуса, поле не  очищается.
+2.Не появляется сообщение об ошибке после  ввода  номер, состоящий из 12 цифр: 896532322222  в поле "Mobile Phone" в форме  "Спросите нас о собачках" на "Стартовой странице" при нажатии на элемент управления блока, осуществляющий отправку данных, поле не очищается.</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/12MG3wyU8wOdBr</t>
+  </si>
+  <si>
+    <t>Br29</t>
+  </si>
+  <si>
+    <t>Br40</t>
+  </si>
+  <si>
+    <t>Br93</t>
+  </si>
+  <si>
+    <t>Br94</t>
+  </si>
+  <si>
+    <t>Br95</t>
+  </si>
+  <si>
+    <t>Br41</t>
+  </si>
+  <si>
+    <t>Br42</t>
+  </si>
+  <si>
+    <t>Br43</t>
+  </si>
+  <si>
+    <t>Br44</t>
+  </si>
+  <si>
+    <t>Br47</t>
+  </si>
+  <si>
+    <t>Br48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2372,6 +2672,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2434,7 +2741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2611,16 +2918,49 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2628,7 +2968,14 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3055,11 +3402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3748F0C-1210-4B7E-977A-DF805B2C6057}">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3071,40 +3418,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>9</v>
@@ -3114,7 +3461,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>17</v>
@@ -3124,7 +3471,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>22</v>
@@ -3134,7 +3481,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>27</v>
@@ -3144,7 +3491,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>30</v>
@@ -3154,19 +3501,19 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="40" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>38</v>
@@ -3176,7 +3523,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>41</v>
@@ -3186,7 +3533,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>47</v>
@@ -3196,99 +3543,99 @@
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="40" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="40" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="150.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="41" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>72</v>
@@ -3298,7 +3645,7 @@
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>70</v>
@@ -3308,7 +3655,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>76</v>
@@ -3318,7 +3665,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>80</v>
@@ -3328,7 +3675,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>84</v>
@@ -3338,7 +3685,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>88</v>
@@ -3348,7 +3695,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>92</v>
@@ -3358,7 +3705,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>95</v>
@@ -3368,7 +3715,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>98</v>
@@ -3378,736 +3725,726 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>148</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>152</v>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>321</v>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>157</v>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="40"/>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="40"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="40"/>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>206</v>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="40"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="40"/>
     </row>
-    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>214</v>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="40"/>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>217</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>307</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C66" s="39"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>322</v>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="40"/>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="40"/>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="40"/>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C70" s="39"/>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="39"/>
+        <v>403</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="40"/>
       <c r="D71" s="40"/>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="39"/>
+        <v>228</v>
+      </c>
+      <c r="C72" s="40"/>
       <c r="D72" s="40"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>238</v>
+        <v>405</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="C73" s="40"/>
       <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>241</v>
+        <v>406</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>244</v>
+        <v>407</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>247</v>
+        <v>408</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>250</v>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="C77" s="40"/>
       <c r="D77" s="40"/>
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>256</v>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="C79" s="40"/>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="40"/>
+        <v>412</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="39"/>
       <c r="D80" s="40"/>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="40"/>
+        <v>413</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="39"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>262</v>
+        <v>414</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="C82" s="39"/>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>266</v>
+        <v>415</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="40"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="40"/>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C86" s="39"/>
       <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="40"/>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="40"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="40"/>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="40"/>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="40"/>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C93" s="39"/>
       <c r="D93" s="40"/>
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>300</v>
+        <v>426</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="C94" s="39"/>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>303</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="40"/>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>306</v>
+        <v>428</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="C96" s="39"/>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>310</v>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="40"/>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="40"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="40"/>
+      <c r="A98" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="46"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="48"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="C100" s="44"/>
-      <c r="D100" s="45"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="46"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="48"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" s="49"/>
       <c r="C101" s="47"/>
       <c r="D101" s="48"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="47"/>
       <c r="D102" s="48"/>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B103" s="49"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="47"/>
       <c r="D103" s="48"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104" s="50"/>
+      <c r="B104" s="49"/>
       <c r="C104" s="47"/>
       <c r="D104" s="48"/>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="50"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="47"/>
       <c r="D105" s="48"/>
     </row>
@@ -4126,24 +4463,24 @@
       <c r="C108" s="47"/>
       <c r="D108" s="48"/>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B109" s="49"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="48"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="51"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="46"/>
       <c r="C110" s="47"/>
       <c r="D110" s="48"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="46"/>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111" s="49"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="48"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" s="49"/>
       <c r="C112" s="47"/>
       <c r="D112" s="48"/>
     </row>
@@ -4177,8 +4514,8 @@
       <c r="C118" s="47"/>
       <c r="D118" s="48"/>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B119" s="49"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="46"/>
       <c r="C119" s="47"/>
       <c r="D119" s="48"/>
     </row>
@@ -4187,8 +4524,8 @@
       <c r="C120" s="47"/>
       <c r="D120" s="48"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="46"/>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" s="49"/>
       <c r="C121" s="47"/>
       <c r="D121" s="48"/>
     </row>
@@ -4207,30 +4544,30 @@
       <c r="C124" s="47"/>
       <c r="D124" s="48"/>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B125" s="49"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="48"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B126" s="49"/>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="47"/>
       <c r="D126" s="48"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
       <c r="B127" s="46"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
-      <c r="B128" s="46"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="48"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B128" s="49"/>
       <c r="C128" s="47"/>
       <c r="D128" s="48"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="46"/>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B129" s="49"/>
       <c r="C129" s="47"/>
       <c r="D129" s="48"/>
     </row>
@@ -4244,8 +4581,8 @@
       <c r="C131" s="47"/>
       <c r="D131" s="48"/>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B132" s="49"/>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="46"/>
       <c r="C132" s="47"/>
       <c r="D132" s="48"/>
     </row>
@@ -4254,8 +4591,8 @@
       <c r="C133" s="47"/>
       <c r="D133" s="48"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="46"/>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B134" s="49"/>
       <c r="C134" s="47"/>
       <c r="D134" s="48"/>
     </row>
@@ -4275,27 +4612,27 @@
       <c r="D137" s="48"/>
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B138" s="49"/>
       <c r="C138" s="47"/>
       <c r="D138" s="48"/>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B139" s="49"/>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="51"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="47"/>
       <c r="D139" s="48"/>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="46"/>
       <c r="C140" s="47"/>
       <c r="D140" s="48"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="46"/>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B141" s="49"/>
       <c r="C141" s="47"/>
       <c r="D141" s="48"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="46"/>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B142" s="49"/>
       <c r="C142" s="47"/>
       <c r="D142" s="48"/>
     </row>
@@ -4334,18 +4671,16 @@
       <c r="C149" s="47"/>
       <c r="D149" s="48"/>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B150" s="49"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="48"/>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="46"/>
+      <c r="D150" s="53"/>
     </row>
     <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B151" s="49"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="48"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="46"/>
+      <c r="D151" s="53"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B152" s="49"/>
       <c r="D152" s="53"/>
     </row>
     <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4356,21 +4691,21 @@
       <c r="B154" s="49"/>
       <c r="D154" s="53"/>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B155" s="49"/>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="51"/>
+      <c r="B155" s="46"/>
       <c r="D155" s="53"/>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B156" s="49"/>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="46"/>
       <c r="D156" s="53"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
-      <c r="B157" s="46"/>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B157" s="49"/>
       <c r="D157" s="53"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="46"/>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B158" s="49"/>
       <c r="D158" s="53"/>
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4385,64 +4720,64 @@
       <c r="B161" s="49"/>
       <c r="D161" s="53"/>
     </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B162" s="49"/>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="46"/>
       <c r="D162" s="53"/>
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B163" s="49"/>
       <c r="D163" s="53"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="46"/>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B164" s="49"/>
       <c r="D164" s="53"/>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B165" s="49"/>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="51"/>
+      <c r="B165" s="46"/>
       <c r="D165" s="53"/>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B166" s="49"/>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="46"/>
       <c r="D166" s="53"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="46"/>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B167" s="49"/>
       <c r="D167" s="53"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="46"/>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B168" s="49"/>
       <c r="D168" s="53"/>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B169" s="49"/>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="46"/>
       <c r="D169" s="53"/>
     </row>
     <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B170" s="49"/>
       <c r="D170" s="53"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="46"/>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B171" s="49"/>
       <c r="D171" s="53"/>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B172" s="49"/>
-      <c r="D172" s="53"/>
-    </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B173" s="49"/>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="51"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="51"/>
+      <c r="B173" s="46"/>
       <c r="D173" s="53"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
-      <c r="B175" s="46"/>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B174" s="49"/>
+      <c r="D174" s="53"/>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B175" s="49"/>
       <c r="D175" s="53"/>
     </row>
     <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4469,40 +4804,40 @@
       <c r="B181" s="49"/>
       <c r="D181" s="53"/>
     </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B182" s="49"/>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="51"/>
+      <c r="B182" s="46"/>
       <c r="D182" s="53"/>
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B183" s="49"/>
       <c r="D183" s="53"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
-      <c r="B184" s="46"/>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B184" s="49"/>
       <c r="D184" s="53"/>
     </row>
     <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B185" s="49"/>
       <c r="D185" s="53"/>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B186" s="49"/>
-      <c r="D186" s="53"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B187" s="49"/>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="51"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="54"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="51"/>
+      <c r="B187" s="46"/>
       <c r="D187" s="53"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
-      <c r="B188" s="46"/>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
-      <c r="B189" s="46"/>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B188" s="49"/>
+      <c r="D188" s="53"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B189" s="49"/>
       <c r="D189" s="53"/>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4517,17 +4852,17 @@
       <c r="B192" s="49"/>
       <c r="D192" s="53"/>
     </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B193" s="49"/>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="51"/>
+      <c r="B193" s="46"/>
       <c r="D193" s="53"/>
     </row>
     <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B194" s="49"/>
       <c r="D194" s="53"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="51"/>
-      <c r="B195" s="46"/>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B195" s="49"/>
       <c r="D195" s="53"/>
     </row>
     <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4538,22 +4873,22 @@
       <c r="B197" s="49"/>
       <c r="D197" s="53"/>
     </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B198" s="49"/>
-      <c r="D198" s="53"/>
-    </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B199" s="49"/>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="51"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="54"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="46"/>
       <c r="D199" s="53"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="51"/>
-      <c r="B200" s="46"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="46"/>
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B200" s="49"/>
+      <c r="D200" s="53"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B201" s="49"/>
       <c r="D201" s="53"/>
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4576,40 +4911,40 @@
       <c r="B206" s="49"/>
       <c r="D206" s="53"/>
     </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B207" s="49"/>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="51"/>
+      <c r="B207" s="46"/>
       <c r="D207" s="53"/>
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B208" s="49"/>
       <c r="D208" s="53"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="51"/>
-      <c r="B209" s="46"/>
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B209" s="49"/>
       <c r="D209" s="53"/>
     </row>
     <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B210" s="49"/>
       <c r="D210" s="53"/>
     </row>
-    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B211" s="49"/>
-      <c r="D211" s="53"/>
-    </row>
-    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B212" s="49"/>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="51"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="51"/>
+      <c r="B212" s="46"/>
       <c r="D212" s="53"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
-      <c r="B213" s="46"/>
-      <c r="C213" s="54"/>
-      <c r="D213" s="54"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
-      <c r="B214" s="46"/>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B213" s="49"/>
+      <c r="D213" s="53"/>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B214" s="49"/>
       <c r="D214" s="53"/>
     </row>
     <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4628,17 +4963,17 @@
       <c r="B218" s="49"/>
       <c r="D218" s="53"/>
     </row>
-    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B219" s="49"/>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="51"/>
+      <c r="B219" s="46"/>
       <c r="D219" s="53"/>
     </row>
     <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B220" s="49"/>
       <c r="D220" s="53"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="51"/>
-      <c r="B221" s="46"/>
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B221" s="49"/>
       <c r="D221" s="53"/>
     </row>
     <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4653,31 +4988,31 @@
       <c r="B224" s="49"/>
       <c r="D224" s="53"/>
     </row>
-    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B225" s="49"/>
-      <c r="D225" s="53"/>
-    </row>
-    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B226" s="49"/>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="51"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="54"/>
+      <c r="D225" s="54"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="51"/>
+      <c r="B226" s="46"/>
       <c r="D226" s="53"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="51"/>
-      <c r="B227" s="46"/>
-      <c r="C227" s="54"/>
-      <c r="D227" s="54"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="51"/>
-      <c r="B228" s="46"/>
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B227" s="55"/>
+      <c r="D227" s="53"/>
+    </row>
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B228" s="55"/>
       <c r="D228" s="53"/>
     </row>
     <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B229" s="55"/>
+      <c r="B229" s="56"/>
       <c r="D229" s="53"/>
     </row>
     <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B230" s="55"/>
+      <c r="B230" s="56"/>
       <c r="D230" s="53"/>
     </row>
     <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4688,17 +5023,17 @@
       <c r="B232" s="56"/>
       <c r="D232" s="53"/>
     </row>
-    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B233" s="56"/>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="51"/>
+      <c r="B233" s="57"/>
       <c r="D233" s="53"/>
     </row>
     <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B234" s="56"/>
       <c r="D234" s="53"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="51"/>
-      <c r="B235" s="57"/>
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B235" s="56"/>
       <c r="D235" s="53"/>
     </row>
     <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4709,23 +5044,23 @@
       <c r="B237" s="56"/>
       <c r="D237" s="53"/>
     </row>
-    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B238" s="56"/>
-      <c r="D238" s="53"/>
-    </row>
-    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B239" s="56"/>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="51"/>
+      <c r="B238" s="46"/>
+      <c r="C238" s="54"/>
+      <c r="D238" s="54"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="51"/>
+      <c r="B239" s="46"/>
       <c r="D239" s="53"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
-      <c r="B240" s="46"/>
-      <c r="C240" s="54"/>
-      <c r="D240" s="54"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="51"/>
-      <c r="B241" s="46"/>
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B240" s="49"/>
+      <c r="D240" s="53"/>
+    </row>
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B241" s="49"/>
       <c r="D241" s="53"/>
     </row>
     <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4740,12 +5075,12 @@
       <c r="B244" s="49"/>
       <c r="D244" s="53"/>
     </row>
-    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B245" s="49"/>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="58"/>
       <c r="D245" s="53"/>
     </row>
-    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B246" s="49"/>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="58"/>
       <c r="D246" s="53"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,12 +5095,12 @@
       <c r="B249" s="58"/>
       <c r="D249" s="53"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="58"/>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B250" s="49"/>
       <c r="D250" s="53"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="58"/>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B251" s="49"/>
       <c r="D251" s="53"/>
     </row>
     <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4780,17 +5115,17 @@
       <c r="B254" s="49"/>
       <c r="D254" s="53"/>
     </row>
-    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B255" s="49"/>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="51"/>
+      <c r="B255" s="46"/>
       <c r="D255" s="53"/>
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B256" s="49"/>
       <c r="D256" s="53"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="51"/>
-      <c r="B257" s="46"/>
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B257" s="49"/>
       <c r="D257" s="53"/>
     </row>
     <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4805,23 +5140,23 @@
       <c r="B260" s="49"/>
       <c r="D260" s="53"/>
     </row>
-    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B261" s="49"/>
-      <c r="D261" s="53"/>
-    </row>
-    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B262" s="49"/>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="51"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="54"/>
+      <c r="D261" s="54"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="51"/>
+      <c r="B262" s="59"/>
       <c r="D262" s="53"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="51"/>
-      <c r="B263" s="59"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="54"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="51"/>
-      <c r="B264" s="59"/>
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B263" s="49"/>
+      <c r="D263" s="53"/>
+    </row>
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B264" s="49"/>
       <c r="D264" s="53"/>
     </row>
     <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4836,40 +5171,40 @@
       <c r="B267" s="49"/>
       <c r="D267" s="53"/>
     </row>
-    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B268" s="49"/>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="51"/>
+      <c r="B268" s="46"/>
       <c r="D268" s="53"/>
     </row>
     <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B269" s="49"/>
       <c r="D269" s="53"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="51"/>
-      <c r="B270" s="46"/>
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B270" s="49"/>
       <c r="D270" s="53"/>
     </row>
     <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B271" s="49"/>
       <c r="D271" s="53"/>
     </row>
-    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B272" s="49"/>
-      <c r="D272" s="53"/>
-    </row>
-    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B273" s="49"/>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="51"/>
+      <c r="B272" s="46"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="54"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="51"/>
+      <c r="B273" s="46"/>
       <c r="D273" s="53"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="51"/>
-      <c r="B274" s="46"/>
-      <c r="C274" s="54"/>
-      <c r="D274" s="54"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="51"/>
-      <c r="B275" s="46"/>
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B274" s="49"/>
+      <c r="D274" s="53"/>
+    </row>
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B275" s="49"/>
       <c r="D275" s="53"/>
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4880,74 +5215,74 @@
       <c r="B277" s="49"/>
       <c r="D277" s="53"/>
     </row>
-    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B278" s="49"/>
-      <c r="D278" s="53"/>
-    </row>
-    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="51"/>
+      <c r="B278" s="46"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="54"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="51"/>
       <c r="B279" s="49"/>
       <c r="D279" s="53"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="51"/>
-      <c r="B280" s="46"/>
-      <c r="C280" s="54"/>
-      <c r="D280" s="54"/>
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B280" s="49"/>
+      <c r="D280" s="53"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="51"/>
-      <c r="B281" s="49"/>
-      <c r="D281" s="53"/>
+      <c r="B281" s="46"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="54"/>
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B282" s="49"/>
       <c r="D282" s="53"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="51"/>
-      <c r="B283" s="46"/>
-      <c r="C283" s="54"/>
-      <c r="D283" s="54"/>
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B283" s="49"/>
+      <c r="D283" s="53"/>
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B284" s="49"/>
       <c r="D284" s="53"/>
     </row>
-    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B285" s="49"/>
-      <c r="D285" s="53"/>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="51"/>
+      <c r="B285" s="59"/>
+      <c r="C285" s="54"/>
+      <c r="D285" s="54"/>
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B286" s="49"/>
       <c r="D286" s="53"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="51"/>
-      <c r="B287" s="59"/>
-      <c r="C287" s="54"/>
-      <c r="D287" s="54"/>
-    </row>
-    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B288" s="49"/>
-      <c r="D288" s="53"/>
-    </row>
-    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B289" s="49"/>
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B287" s="49"/>
+      <c r="D287" s="53"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="51"/>
+      <c r="B288" s="46"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="54"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="51"/>
+      <c r="B289" s="46"/>
       <c r="D289" s="53"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="51"/>
-      <c r="B290" s="46"/>
-      <c r="C290" s="54"/>
-      <c r="D290" s="54"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="51"/>
-      <c r="B291" s="46"/>
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B290" s="49"/>
+      <c r="D290" s="53"/>
+    </row>
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B291" s="49"/>
       <c r="D291" s="53"/>
     </row>
-    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B292" s="49"/>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="46"/>
       <c r="D292" s="53"/>
     </row>
     <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4955,18 +5290,18 @@
       <c r="D293" s="53"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="51"/>
       <c r="B294" s="46"/>
-      <c r="D294" s="53"/>
-    </row>
-    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B295" s="49"/>
+      <c r="C294" s="54"/>
+      <c r="D294" s="54"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="46"/>
       <c r="D295" s="53"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="51"/>
-      <c r="B296" s="46"/>
-      <c r="C296" s="54"/>
-      <c r="D296" s="54"/>
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B296" s="49"/>
+      <c r="D296" s="53"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B297" s="46"/>
@@ -4977,68 +5312,68 @@
       <c r="D298" s="53"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="51"/>
       <c r="B299" s="46"/>
-      <c r="D299" s="53"/>
+      <c r="C299" s="54"/>
+      <c r="D299" s="54"/>
     </row>
     <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B300" s="49"/>
       <c r="D300" s="53"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="51"/>
-      <c r="B301" s="46"/>
-      <c r="C301" s="54"/>
-      <c r="D301" s="54"/>
-    </row>
-    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B302" s="49"/>
-      <c r="D302" s="53"/>
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B301" s="49"/>
+      <c r="D301" s="53"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="51"/>
+      <c r="B302" s="46"/>
+      <c r="C302" s="54"/>
+      <c r="D302" s="54"/>
     </row>
     <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B303" s="49"/>
       <c r="D303" s="53"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="51"/>
-      <c r="B304" s="46"/>
-      <c r="C304" s="54"/>
-      <c r="D304" s="54"/>
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B304" s="49"/>
+      <c r="D304" s="53"/>
     </row>
     <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B305" s="49"/>
       <c r="D305" s="53"/>
     </row>
-    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B306" s="49"/>
-      <c r="D306" s="53"/>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="51"/>
+      <c r="B306" s="46"/>
+      <c r="C306" s="54"/>
+      <c r="D306" s="54"/>
     </row>
     <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B307" s="49"/>
       <c r="D307" s="53"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="51"/>
-      <c r="B308" s="46"/>
-      <c r="C308" s="54"/>
-      <c r="D308" s="54"/>
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B308" s="49"/>
+      <c r="D308" s="53"/>
     </row>
     <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B309" s="49"/>
       <c r="D309" s="53"/>
     </row>
-    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B310" s="49"/>
-      <c r="D310" s="53"/>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="51"/>
+      <c r="B310" s="46"/>
+      <c r="C310" s="54"/>
+      <c r="D310" s="54"/>
     </row>
     <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B311" s="49"/>
       <c r="D311" s="53"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="51"/>
-      <c r="B312" s="46"/>
-      <c r="C312" s="54"/>
-      <c r="D312" s="54"/>
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B312" s="49"/>
+      <c r="D312" s="53"/>
     </row>
     <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B313" s="49"/>
@@ -5100,45 +5435,37 @@
       <c r="B327" s="49"/>
       <c r="D327" s="53"/>
     </row>
-    <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B328" s="49"/>
-      <c r="D328" s="53"/>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="51"/>
+      <c r="B328" s="46"/>
+      <c r="C328" s="54"/>
+      <c r="D328" s="54"/>
     </row>
     <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B329" s="49"/>
       <c r="D329" s="53"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="51"/>
-      <c r="B330" s="46"/>
-      <c r="C330" s="54"/>
-      <c r="D330" s="54"/>
-    </row>
-    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B331" s="49"/>
-      <c r="D331" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C74 C77:C1048576">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="C75:C1048576 C2:C72">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C100">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:C98">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5150,7 +5477,7 @@
           <x14:formula1>
             <xm:f>Лист1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C100</xm:sqref>
+          <xm:sqref>C3:C98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5160,11 +5487,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5175,21 +5502,22 @@
     <col min="4" max="4" width="5" style="17" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="135" style="1" customWidth="1"/>
-    <col min="8" max="8" width="76" style="1" customWidth="1"/>
+    <col min="7" max="7" width="114.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="64.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="56" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="53.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="32.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="47.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="46.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="32.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="66" style="1" customWidth="1"/>
     <col min="19" max="19" width="60.28515625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="32.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="53.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="32.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="40.42578125" style="1" customWidth="1"/>
     <col min="25" max="26" width="32.28515625" style="1" customWidth="1"/>
@@ -5206,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -5227,61 +5555,61 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="V1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>4</v>
@@ -5313,13 +5641,13 @@
         <v>10</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="12" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -5327,9 +5655,9 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -5364,13 +5692,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -5378,9 +5706,9 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -5415,13 +5743,13 @@
         <v>23</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="12" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -5429,9 +5757,9 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -5460,19 +5788,19 @@
         <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -5480,9 +5808,9 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
@@ -5511,19 +5839,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -5531,9 +5859,9 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -5568,15 +5896,15 @@
         <v>34</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>36</v>
@@ -5585,14 +5913,14 @@
         <v>34</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
@@ -5621,61 +5949,65 @@
         <v>39</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="U8" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62" t="s">
-        <v>473</v>
+      <c r="V8" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="Z8" s="9"/>
+        <v>451</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>480</v>
+      </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="7" t="s">
         <v>12</v>
@@ -5698,51 +6030,63 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="12" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="U9" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="7" t="s">
         <v>12</v>
@@ -5774,7 +6118,9 @@
       <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -5785,9 +6131,9 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
@@ -5823,7 +6169,9 @@
       <c r="H11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -5834,9 +6182,9 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="9"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
@@ -5872,7 +6220,9 @@
       <c r="H12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -5883,9 +6233,9 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -5915,26 +6265,33 @@
       <c r="F13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -5970,20 +6327,17 @@
       <c r="H14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -6013,26 +6367,33 @@
       <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -6047,10 +6408,10 @@
     </row>
     <row r="16" spans="1:32" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>72</v>
@@ -6064,26 +6425,34 @@
       <c r="F16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="M16" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -6098,10 +6467,10 @@
     </row>
     <row r="17" spans="1:29" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>72</v>
@@ -6115,26 +6484,36 @@
       <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="M17" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>497</v>
+      </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="9"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -6149,10 +6528,10 @@
     </row>
     <row r="18" spans="1:29" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>72</v>
@@ -6166,26 +6545,36 @@
       <c r="F18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="M18" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>506</v>
+      </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="9"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -6200,10 +6589,10 @@
     </row>
     <row r="19" spans="1:29" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>72</v>
@@ -6217,26 +6606,36 @@
       <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="M19" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -6251,10 +6650,10 @@
     </row>
     <row r="20" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>72</v>
@@ -6274,7 +6673,9 @@
       <c r="H20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -6285,9 +6686,9 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -6302,10 +6703,10 @@
     </row>
     <row r="21" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>72</v>
@@ -6320,12 +6721,14 @@
         <v>39</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -6336,9 +6739,9 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="9"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -6353,10 +6756,10 @@
     </row>
     <row r="22" spans="1:29" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>72</v>
@@ -6376,7 +6779,9 @@
       <c r="H22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -6387,9 +6792,9 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="9"/>
       <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -6404,10 +6809,10 @@
     </row>
     <row r="23" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>72</v>
@@ -6421,13 +6826,15 @@
       <c r="F23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>101</v>
+      <c r="G23" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -6438,9 +6845,9 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="9"/>
       <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -6455,30 +6862,32 @@
     </row>
     <row r="24" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -6489,9 +6898,9 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="9"/>
       <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -6506,30 +6915,32 @@
     </row>
     <row r="25" spans="1:29" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -6540,9 +6951,9 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="9"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -6557,30 +6968,32 @@
     </row>
     <row r="26" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -6591,9 +7004,9 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="9"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -6608,30 +7021,32 @@
     </row>
     <row r="27" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -6642,9 +7057,9 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="9"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -6659,30 +7074,32 @@
     </row>
     <row r="28" spans="1:29" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>119</v>
+      <c r="G28" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -6693,9 +7110,9 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="9"/>
       <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
@@ -6708,45 +7125,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="9"/>
+      <c r="G29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="L29" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>514</v>
+      </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
@@ -6761,30 +7190,32 @@
     </row>
     <row r="30" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -6795,9 +7226,9 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="9"/>
       <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
@@ -6812,30 +7243,32 @@
     </row>
     <row r="31" spans="1:29" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -6846,9 +7279,9 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -6863,30 +7296,32 @@
     </row>
     <row r="32" spans="1:29" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -6897,9 +7332,9 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="9"/>
       <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -6914,30 +7349,32 @@
     </row>
     <row r="33" spans="1:29" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -6948,9 +7385,9 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -6965,30 +7402,32 @@
     </row>
     <row r="34" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -6999,9 +7438,9 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="9"/>
       <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -7014,32 +7453,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="9"/>
+      <c r="H35" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -7050,9 +7489,9 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -7065,32 +7504,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>154</v>
+      <c r="G36" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -7101,9 +7542,9 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="9"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -7116,30 +7557,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -7150,9 +7595,9 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="9"/>
       <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -7162,35 +7607,37 @@
         <v>12</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>162</v>
+      <c r="G38" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -7201,9 +7648,9 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="9"/>
       <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -7216,32 +7663,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>166</v>
+      <c r="G39" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -7252,9 +7701,9 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="9"/>
       <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -7264,35 +7713,37 @@
         <v>12</v>
       </c>
       <c r="AC39" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>169</v>
+      <c r="G40" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -7303,9 +7754,9 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="9"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -7318,32 +7769,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>172</v>
+      <c r="G41" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -7354,9 +7807,9 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="9"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -7369,45 +7822,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="G42" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
+      <c r="L42" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" s="65" t="s">
+        <v>517</v>
+      </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="9"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -7420,45 +7885,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="9"/>
+      <c r="G43" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="L43" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="9"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -7471,45 +7946,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>182</v>
+      <c r="G44" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I44" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
+      <c r="L44" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="9"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
@@ -7522,45 +8007,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="L45" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="9"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
@@ -7573,45 +8068,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>188</v>
+      <c r="G46" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
+      <c r="L46" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="66" t="s">
+        <v>529</v>
+      </c>
       <c r="Q46" s="10"/>
       <c r="R46" s="9"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
@@ -7624,45 +8131,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>191</v>
+      <c r="G47" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="L47" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" s="60" t="s">
+        <v>530</v>
+      </c>
       <c r="Q47" s="10"/>
       <c r="R47" s="9"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
@@ -7675,45 +8194,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>195</v>
+      <c r="G48" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
+      <c r="L48" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" s="64" t="s">
+        <v>532</v>
+      </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="9"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
@@ -7726,45 +8257,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>198</v>
+      <c r="G49" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="L49" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>533</v>
+      </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="9"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
@@ -7777,45 +8320,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>201</v>
+      <c r="G50" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
+      <c r="L50" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>539</v>
+      </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="9"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
@@ -7828,45 +8383,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I51" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="L51" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>541</v>
+      </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="9"/>
       <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
@@ -7881,30 +8448,32 @@
     </row>
     <row r="52" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -7915,9 +8484,9 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="9"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
@@ -7930,32 +8499,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -7966,9 +8537,9 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
@@ -7981,32 +8552,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -8017,9 +8590,9 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="9"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -8032,32 +8605,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I55" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -8068,9 +8643,9 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="9"/>
       <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -8083,30 +8658,30 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>223</v>
+      <c r="G56" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="10"/>
@@ -8119,9 +8694,9 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="9"/>
       <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -8134,32 +8709,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -8170,9 +8747,9 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="9"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -8185,32 +8762,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -8221,9 +8800,9 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="9"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -8236,32 +8815,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>233</v>
+      <c r="G59" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I59" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -8272,9 +8853,9 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -8287,32 +8868,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I60" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
@@ -8323,9 +8906,9 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="9"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -8338,32 +8921,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>239</v>
+      <c r="G61" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I61" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -8374,9 +8959,9 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="9"/>
       <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -8389,32 +8974,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>242</v>
+      <c r="G62" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -8425,9 +9012,9 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="9"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -8440,32 +9027,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>245</v>
+      <c r="G63" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I63" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -8476,9 +9065,9 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="9"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -8491,32 +9080,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I64" s="9"/>
+      <c r="G64" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -8527,9 +9118,9 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="9"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -8539,35 +9130,37 @@
         <v>12</v>
       </c>
       <c r="AC64" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>251</v>
+      <c r="G65" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I65" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -8578,9 +9171,9 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="9"/>
       <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -8593,32 +9186,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>254</v>
+      <c r="G66" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I66" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -8629,9 +9224,9 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="9"/>
       <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -8644,32 +9239,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -8680,9 +9277,9 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="9"/>
       <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -8692,35 +9289,37 @@
         <v>12</v>
       </c>
       <c r="AC67" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>260</v>
+      <c r="G68" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I68" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -8731,9 +9330,9 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="9"/>
       <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -8746,32 +9345,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>264</v>
+      <c r="G69" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I69" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -8782,9 +9383,9 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="9"/>
       <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -8799,30 +9400,32 @@
     </row>
     <row r="70" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -8833,9 +9436,9 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="9"/>
       <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -8848,32 +9451,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I71" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -8884,9 +9489,9 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="9"/>
       <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -8899,32 +9504,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I72" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
@@ -8935,9 +9542,9 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="9"/>
       <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -8950,32 +9557,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I73" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
@@ -8986,9 +9595,9 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="9"/>
       <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -9001,32 +9610,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -9037,9 +9648,9 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="9"/>
       <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -9052,32 +9663,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>283</v>
+      <c r="G75" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I75" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -9088,9 +9701,9 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="9"/>
       <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -9103,32 +9716,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -9139,9 +9754,9 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="9"/>
       <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -9154,32 +9769,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -9190,9 +9807,9 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="9"/>
       <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -9205,32 +9822,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>292</v>
+      <c r="G78" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I78" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
@@ -9241,9 +9860,9 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="9"/>
       <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -9256,32 +9875,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>295</v>
+      <c r="G79" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I79" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
@@ -9292,9 +9913,9 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="9"/>
       <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -9307,32 +9928,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>298</v>
+      <c r="G80" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I80" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
@@ -9343,9 +9966,9 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="9"/>
       <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9358,32 +9981,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I81" s="9"/>
+        <v>294</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -9394,9 +10019,9 @@
       <c r="Q81" s="10"/>
       <c r="R81" s="9"/>
       <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9409,83 +10034,89 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="16" t="s">
+    <row r="82" spans="1:32" s="74" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A82" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="H82" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
+      <c r="V82" s="71"/>
+      <c r="W82" s="71"/>
+      <c r="X82" s="71"/>
+      <c r="Y82" s="71"/>
+      <c r="Z82" s="71"/>
+      <c r="AA82" s="73"/>
+      <c r="AB82" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC82" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE82" s="75"/>
+      <c r="AF82" s="76"/>
+    </row>
+    <row r="83" spans="1:32" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC82" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83" s="9"/>
+      <c r="G83" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -9496,9 +10127,9 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="9"/>
       <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9508,180 +10139,35 @@
         <v>12</v>
       </c>
       <c r="AC83" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC84" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="I85" s="9"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="11"/>
-      <c r="AB85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC85" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="135" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="11"/>
-      <c r="AB86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC86" s="7" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="I2:Z86">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="I2:Z12 V13:Z15 I13:P15 I16:Z41 I42:O42 Q42:Z42 I43:Z45 I46:M46 Q46:Z46 Q48:Z48 I47:Z47 M49:Z49 M48:O48 I48:L49 I50:Z83">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1" xr:uid="{F5500B54-D43D-4BB1-BD40-6238598F3965}"/>
+    <hyperlink ref="U9" r:id="rId2" display="http://joxi.ru/bmoZ8lyUl700Kr" xr:uid="{DEE4112E-996D-43EA-90C9-AD871C2F0CF6}"/>
+    <hyperlink ref="U8" r:id="rId3" display="http://joxi.ru/12MG3wyU8wGbVr" xr:uid="{C99ED43D-92D4-4E64-8EE7-D088CC20DF40}"/>
+    <hyperlink ref="P15" r:id="rId4" xr:uid="{30A7CE6F-67EC-4C3D-83CA-8DF5BA44531E}"/>
+    <hyperlink ref="P13" r:id="rId5" xr:uid="{5EE451EC-EAF7-40A4-A22C-9972ED170A22}"/>
+    <hyperlink ref="P17" r:id="rId6" xr:uid="{BB8FB9C7-5E2A-404E-B8E9-D418128D03B0}"/>
+    <hyperlink ref="P18" r:id="rId7" xr:uid="{9E01937B-7534-448F-8E61-141AF366E76F}"/>
+    <hyperlink ref="P47" r:id="rId8" xr:uid="{DDE3A33B-5B22-47A8-BE51-02B3FE819956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9735,11 +10221,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E31:E36</xm:sqref>
+          <xm:sqref>E31:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="18" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
-            <xm:f>IF($E37='Чек лист'!$B46,1,0)</xm:f>
+            <xm:f>IF($E35='Чек лист'!$B44,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9748,11 +10234,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E37:E53</xm:sqref>
+          <xm:sqref>E35:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="24" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
-            <xm:f>IF($E54='Чек лист'!$B64,1,0)</xm:f>
+            <xm:f>IF($E52='Чек лист'!$B62,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9761,11 +10247,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E54:E56</xm:sqref>
+          <xm:sqref>E52:E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="31" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
-            <xm:f>IF($E57='Чек лист'!$B69,1,0)</xm:f>
+            <xm:f>IF($E55='Чек лист'!$B67,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9774,11 +10260,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E57:E66</xm:sqref>
+          <xm:sqref>E55:E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="39" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
-            <xm:f>IF($E67='Чек лист'!$B80,1,0)</xm:f>
+            <xm:f>IF($E64='Чек лист'!$B78,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9787,11 +10273,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E67:E83</xm:sqref>
+          <xm:sqref>E64:E80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="48" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
-            <xm:f>IF($E84='Чек лист'!$B98,1,0)</xm:f>
+            <xm:f>IF($E81='Чек лист'!$B96,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9800,7 +10286,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E84:E86</xm:sqref>
+          <xm:sqref>E81:E83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="56" id="{46184A9C-E670-49C5-9F69-574392FAD74A}">
+            <xm:f>IF($E63='Чек лист'!$B76,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E63</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9810,7 +10309,7 @@
           <x14:formula1>
             <xm:f>Лист1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:K5 I6:K86</xm:sqref>
+          <xm:sqref>I2:K83</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9819,6 +10318,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972309F8-D748-4371-BED7-391809691334}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{048540EE-C375-4042-A1E5-49C12EF302A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF987F79-48AE-4C0B-A017-DD32440B3524}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9830,17 +10415,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Тест кейс сайт Собаседник 240423.xlsx
+++ b/Тест кейс сайт Собаседник 240423.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\ProjectSt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E996F4CC-5600-40A4-9328-FB6D08FBC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F7C8D-912F-4DA2-9168-A69E5E7F5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="210" windowWidth="28395" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="570" windowWidth="28800" windowHeight="14370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Worksheet!$A$3:$AG$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Тест-кейс'!$A$7:$G$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Чек лист'!$A$2:$G$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="762">
   <si>
     <t>ID</t>
   </si>
@@ -3165,6 +3166,144 @@
   <si>
     <t>Тест-кейсы
 "Смоук" тестирования Сайта "Собаседник" и функционального тестирования текстовых полей, полей ввода номера телефона и e-mail сайта "Собаседник"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидный email, содержащий 64 знака в локальной части и 255 знаков в доменной части </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail, содержащий:  64 знака в локальной части и 255 знаков в доменной части lorem-ipsum-dolor-sit-amet-consectetur-adipiscing-al-suspendisse@Lorem.ipsumdolor.sit.amet.co.nsectetur.adipiscing.elit.In.ultricies.odio.eget.interdum.ornare.tellus.sapien.congue.ante.d finibus.quam.est sed.ipsum.uids.dignissim.odio.purus.in.venenatis.risus.malesuada.ut.cras.rhoncus.mauris.as.psum.ornare.porttitor.com
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>С103</t>
+  </si>
+  <si>
+    <t>С104</t>
+  </si>
+  <si>
+    <t>С105</t>
+  </si>
+  <si>
+    <t>С106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидный email, содержащий 63 знака в локальной части и 254 знаков в доменной части </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail, содержащий:  63 знака в локальной части и 254 знаков в доменной части lorem-ipsum-dolor-sit-amet-consectetur-adipiscing-al-suspendiss@Lorem.ipsumdolor.sit.amet.co.nsectetur.adipiscing.elit.In.ultricies.odio.eget.interdum.ornare.tellus.sapien.congue.ante.d finibus.qua.est sed.ipsum.uids.dignissim.odio.purus.in.venenatis.risus.malesuada.ut.cras.rhoncus.mauris.as.psum.ornare.porttitor.com
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail, содержащий:  64 знака в локальной части и 256 знаков в доменной части lorem-ipsum-dolor-sit-amet-consectetur-adipiscing-al-suspendisse@Lorem.ipsumdolor.sit.amet.co.nsectetur.adipiscing.elit.In.ultricies.odio.eget.interdum.ornare.tellus.sapien.congue.ante.d finibus.quaam.est sed.ipsum.uids.dignissim.odio.purus.in.venenatis.risus.malesuada.ut.cras.rhoncus.mauris.as.psum.ornare.porttitor.com
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail, содержащий:  65 знака в локальной части и 255 знаков в доменной части lorem-ipsum-dolor-sita-amet-consectetur-adipiscing-al-suspendiss@Lorem.ipsumdolor.sit.amet.co.nsectetur.adipiscing.elit.In.ultricies.odio.eget.interdum.ornare.tellus.sapien.congue.ante.d finibus.qua.est sed.ipsum.uids.dignissim.odio.purus.in.venenatis.risus.malesuada.ut.cras.rhoncus.mauris.as.psum.ornare.porttitor.com
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, содержащий 64 знака в локальной части и 256 знаков в доменной части </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, содержащий 65 знака в локальной части и 255 знаков в доменной части </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+2.Вводим валидный адрес e-mail: email@domain.com
+3.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+4.Щелчком левой кнопки мышки, повторно ставим курсор в конец локальной части введенного ранее email.
+5.Удаляем кнопкой ""BackSpace"" локальную часть от знака «@» до начала поля.
+6.Вводим новое значение локальной части адреса: firstname.lastname@domain.com
+7.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail в формате: email@domain.com
+6.Щелчком левой кнопки мышки, повторно ставим курсор в конец локальной части введенного ранее email.
+7.Удаляем кнопкой "BackSpace" локальную часть от знака «@» до начала поля.
+8.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода e-mail.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Водим в поле e-mail в формате: email@domain.com
+6.Щелчком левой кнопки мышки, повторно ставим курсор в начало доменной части, после знака "@", введенного ранее email.
+7.Удаляем кнопкой "Delete" доменную часть email до окончания.
+8.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+9.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>Длинна телефонного номера 10 цифр</t>
+  </si>
+  <si>
+    <t>Длинна телефонного номера 12 цифр</t>
+  </si>
+  <si>
+    <t>Длинна телефонного номера 1 цифра</t>
+  </si>
+  <si>
+    <t>Ввод спецсимволов: `~@#$%^&amp;*_|=\{}[]:”;’&amp;lt;&amp;gt;?/®©£¥¢¦§«»€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Открываем DevTools
+2.В DevTools выбираем элемент управления ""Select an element in the page to inspect it""
+3.На странице сайта, щелчком левой кнопки мышки, ставим курсор в поле ввода номера телефона.
+4.В DevTools смотрим к какому блоку относится поле и определяем элемент управления, выполняющий функцию отправки данных поля (тип button).
+5.Вводим валидный номер телефона: 89653332222.
+6.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+7.Щелчком левой кнопки мышки, повторно ставим курсор в номер (после первой цифры) введенного ранее номера.
+8.Удаляем кнопкой "Delete" часть номера до конца номера (10 цифр). Оставляем одну цифру 9
+7.Переводим мышкой курсор на любой другой элемент управления. Проверяем валидацию введенного значения при потере фокуса.
+8.Левой кнопкой мыши нажимаем на элемент управления блока, осуществляющий отправку значений поля. Проверяем валидацию поля при отправке значений.
+</t>
+  </si>
+  <si>
+    <t>Длинна телефонного номера  10 цифр</t>
+  </si>
+  <si>
+    <t>Длинна телефонного номера  12 цифр</t>
+  </si>
+  <si>
+    <t>Удаленные</t>
+  </si>
+  <si>
+    <t>Добавленные</t>
+  </si>
+  <si>
+    <t>С применением техник тест-дезайна: эквивалентного разбиения, анализ граничных значений, попарное тестирование удалено 37 тестов, добавлено - 4</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3583,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3472,6 +3611,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3550,7 +3707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3929,9 +4086,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3952,6 +4106,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4019,12 +4179,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCBF7C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4036,34 +4286,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBF7C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBF7C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4140,6 +4362,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
@@ -4147,7 +4376,56 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCBF7C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4169,6 +4447,62 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4344,9 +4678,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCBF7C1"/>
       <color rgb="FFC9E7A7"/>
       <color rgb="FFC3F8A2"/>
-      <color rgb="FFCBF7C1"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -4667,15 +5001,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -7992,13 +8326,13 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="C3:F4 C5:D97 F5:F97 E5:E99">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8093,7 +8427,7 @@
   <dimension ref="A3:AG98"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -13979,13 +14313,13 @@
   <autoFilter ref="A3:AG94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="I5:AA16 I17:Q22 W17:AA22 I23:AA51 M52:P52 R52:AA52 I52:L61 M53:AA55 M56:N56 R56:AA56 M57:AA57 N58:P58 R58:AA58 M58:M59 N59:AA59 M60:AA61 I62:AA98">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14061,10 +14395,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G99"/>
+  <dimension ref="A2:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G99"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14079,866 +14413,965 @@
     <col min="8" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="151" t="s">
         <v>736</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-    </row>
-    <row r="4" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="110" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+    </row>
+    <row r="3" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="189" t="s">
+        <v>761</v>
+      </c>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="187" t="s">
+        <v>759</v>
+      </c>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="188" t="s">
+        <v>760</v>
+      </c>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+    </row>
+    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D7" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E7" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F7" s="110" t="s">
         <v>688</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G7" s="110" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92"/>
-      <c r="C5" s="99" t="s">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89">
+        <v>1</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="99" t="s">
         <v>683</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
-    </row>
-    <row r="6" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
+        <v>2</v>
+      </c>
+      <c r="B9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B7" s="90" t="s">
+      <c r="G9" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>3</v>
+      </c>
+      <c r="B10" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B8" s="90" t="s">
+      <c r="G10" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A11" s="89">
+        <v>4</v>
+      </c>
+      <c r="B11" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D11" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B9" s="90" t="s">
+      <c r="G11" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A12" s="89">
+        <v>5</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C12" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D12" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E12" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F12" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B10" s="90" t="s">
+      <c r="G12" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A13" s="89">
+        <v>6</v>
+      </c>
+      <c r="B13" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C13" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D13" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E13" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F13" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B11" s="90" t="s">
+      <c r="G13" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>7</v>
+      </c>
+      <c r="B14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C14" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D14" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E14" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F14" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="90" t="s">
+      <c r="G14" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>8</v>
+      </c>
+      <c r="B15" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D15" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E15" s="76" t="s">
         <v>685</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F15" s="76" t="s">
         <v>421</v>
       </c>
-      <c r="G12" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="90" t="s">
+      <c r="G15" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
+        <v>9</v>
+      </c>
+      <c r="B16" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C16" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F16" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="90"/>
-      <c r="C14" s="144" t="s">
+      <c r="G16" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="89">
+        <v>10</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="145" t="s">
         <v>686</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="95"/>
-    </row>
-    <row r="15" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B15" s="90" t="s">
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="95"/>
+    </row>
+    <row r="18" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A18" s="89">
+        <v>11</v>
+      </c>
+      <c r="B18" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C18" s="76" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B16" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B18" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="114" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A19" s="89">
+        <v>12</v>
+      </c>
       <c r="B19" s="90" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D19" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G19" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="89">
+        <v>13</v>
+      </c>
       <c r="B20" s="90" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D20" s="76" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A21" s="89">
+        <v>14</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A22" s="89">
+        <v>15</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A23" s="89">
+        <v>16</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F23" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="92"/>
-      <c r="C21" s="101" t="s">
+      <c r="G23" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="89">
+        <v>17</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
-    </row>
-    <row r="22" spans="2:7" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="103"/>
-      <c r="C22" s="141" t="s">
+      <c r="D24" s="93"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" spans="1:7" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="89">
+        <v>18</v>
+      </c>
+      <c r="B25" s="103"/>
+      <c r="C25" s="142" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="23" spans="2:7" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
-      <c r="C23" s="141" t="s">
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="103"/>
+    </row>
+    <row r="26" spans="1:7" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="89">
+        <v>19</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="103"/>
-    </row>
-    <row r="24" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="90" t="s">
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="89">
+        <v>20</v>
+      </c>
+      <c r="B27" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C27" s="76" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>622</v>
-      </c>
-      <c r="G25" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="B27" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>83</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G27" s="91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="89">
+        <v>21</v>
+      </c>
       <c r="B28" s="90" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F28" s="76" t="s">
-        <v>88</v>
+        <v>622</v>
       </c>
       <c r="G28" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="89">
+        <v>22</v>
+      </c>
       <c r="B29" s="90" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D29" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G29" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="199.5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A30" s="89">
+        <v>23</v>
+      </c>
       <c r="B30" s="90" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D30" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G30" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="171" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="89">
+        <v>24</v>
+      </c>
       <c r="B31" s="90" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>486</v>
+        <v>89</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G31" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="89">
+        <v>25</v>
+      </c>
       <c r="B32" s="90" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="F32" s="76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G32" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="89">
+        <v>26</v>
+      </c>
       <c r="B33" s="90" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D33" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F33" s="76" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G33" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A34" s="89">
+        <v>27</v>
+      </c>
       <c r="B34" s="90" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>110</v>
+        <v>486</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G34" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A35" s="89">
+        <v>28</v>
+      </c>
       <c r="B35" s="90" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G35" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A36" s="89">
+        <v>29</v>
+      </c>
       <c r="B36" s="90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D36" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F36" s="76" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G36" s="91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="89">
+        <v>30</v>
+      </c>
       <c r="B37" s="90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D37" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A38" s="89">
+        <v>31</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="89">
+        <v>32</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="89">
+        <v>33</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F40" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="G37" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="G40" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="89">
+        <v>34</v>
+      </c>
+      <c r="B41" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C41" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D41" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E41" s="76" t="s">
         <v>629</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F41" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="90"/>
-      <c r="C39" s="147" t="s">
+      <c r="G41" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="89">
+        <v>35</v>
+      </c>
+      <c r="B42" s="90"/>
+      <c r="C42" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="95">
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="90" t="s">
+    <row r="43" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="89">
+        <v>36</v>
+      </c>
+      <c r="B43" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C43" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D43" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E43" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F43" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="90" t="s">
+      <c r="G43" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="89">
+        <v>37</v>
+      </c>
+      <c r="B44" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C44" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D44" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E44" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F44" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="90" t="s">
+      <c r="G44" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="89">
+        <v>38</v>
+      </c>
+      <c r="B45" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C45" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D45" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E45" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F45" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
+      <c r="G45" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A46" s="89">
+        <v>39</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C46" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D46" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E46" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="76" t="s">
+      <c r="F46" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="105"/>
-      <c r="C44" s="154" t="s">
+      <c r="G46" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="89">
+        <v>40</v>
+      </c>
+      <c r="B47" s="105"/>
+      <c r="C47" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="105"/>
-    </row>
-    <row r="45" spans="2:7" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="105"/>
-      <c r="C45" s="154" t="s">
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="105"/>
+    </row>
+    <row r="48" spans="1:7" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="89">
+        <v>41</v>
+      </c>
+      <c r="B48" s="105"/>
+      <c r="C48" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="105"/>
-    </row>
-    <row r="46" spans="2:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="90" t="s">
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="105"/>
+    </row>
+    <row r="49" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="89">
+        <v>42</v>
+      </c>
+      <c r="B49" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C49" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76" t="s">
+      <c r="D49" s="76"/>
+      <c r="E49" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="76" t="s">
+      <c r="F49" s="76" t="s">
         <v>491</v>
       </c>
-      <c r="G46" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="90" t="s">
+      <c r="G49" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="89">
+        <v>43</v>
+      </c>
+      <c r="B50" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C50" s="77" t="s">
         <v>148</v>
-      </c>
-      <c r="D47" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="76" t="s">
-        <v>592</v>
-      </c>
-      <c r="F47" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="G47" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="G48" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="G49" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>158</v>
       </c>
       <c r="D50" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>159</v>
+        <v>592</v>
       </c>
       <c r="F50" s="76" t="s">
         <v>620</v>
@@ -14947,118 +15380,136 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="90" t="s">
+    <row r="51" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="89">
+        <v>44</v>
+      </c>
+      <c r="B51" s="161" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="162" t="s">
+        <v>620</v>
+      </c>
+      <c r="G51" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="89">
+        <v>45</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="162" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="162" t="s">
+        <v>620</v>
+      </c>
+      <c r="G52" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="89">
+        <v>46</v>
+      </c>
+      <c r="B53" s="161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="162" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="162" t="s">
+        <v>620</v>
+      </c>
+      <c r="G53" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="89">
+        <v>47</v>
+      </c>
+      <c r="B54" s="161" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C54" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D54" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="E54" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="76" t="s">
+      <c r="F54" s="162" t="s">
         <v>620</v>
       </c>
-      <c r="G51" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="90" t="s">
+      <c r="G54" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="89">
+        <v>48</v>
+      </c>
+      <c r="B55" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C55" s="77" t="s">
         <v>164</v>
-      </c>
-      <c r="D52" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="G52" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="76" t="s">
-        <v>492</v>
-      </c>
-      <c r="F53" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G53" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G54" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>172</v>
       </c>
       <c r="D55" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="76" t="s">
-        <v>498</v>
+        <v>165</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="G55" s="91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>174</v>
+    <row r="56" spans="1:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="89">
+        <v>49</v>
+      </c>
+      <c r="B56" s="163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>167</v>
       </c>
       <c r="D56" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="76" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="F56" s="76" t="s">
         <v>596</v>
@@ -15067,78 +15518,90 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="90" t="s">
+    <row r="57" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="89">
+        <v>50</v>
+      </c>
+      <c r="B57" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G57" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="89">
+        <v>51</v>
+      </c>
+      <c r="B58" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="162" t="s">
+        <v>498</v>
+      </c>
+      <c r="F58" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G58" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="89">
+        <v>52</v>
+      </c>
+      <c r="B59" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="162" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G59" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="89">
+        <v>53</v>
+      </c>
+      <c r="B60" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G57" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G58" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G59" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>186</v>
+      <c r="C60" s="77" t="s">
+        <v>755</v>
       </c>
       <c r="D60" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="76" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F60" s="76" t="s">
         <v>596</v>
@@ -15147,761 +15610,1062 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="90" t="s">
+    <row r="61" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="89">
+        <v>54</v>
+      </c>
+      <c r="B61" s="161" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="162" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="162" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G61" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="89">
+        <v>55</v>
+      </c>
+      <c r="B62" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="162" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G62" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="89">
+        <v>56</v>
+      </c>
+      <c r="B63" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="G63" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="89">
+        <v>57</v>
+      </c>
+      <c r="B64" s="165">
+        <v>102</v>
+      </c>
+      <c r="C64" s="166" t="s">
+        <v>754</v>
+      </c>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166" t="s">
+        <v>756</v>
+      </c>
+      <c r="F64" s="166" t="s">
+        <v>596</v>
+      </c>
+      <c r="G64" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="89">
+        <v>58</v>
+      </c>
+      <c r="B65" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="F61" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="G61" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="76" t="s">
-        <v>533</v>
-      </c>
-      <c r="G62" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" s="108" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
-      <c r="C63" s="147" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="105"/>
-    </row>
-    <row r="64" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="90" t="s">
-        <v>198</v>
-      </c>
       <c r="C65" s="76" t="s">
-        <v>199</v>
+        <v>752</v>
       </c>
       <c r="D65" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="76" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>200</v>
+        <v>596</v>
       </c>
       <c r="G65" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="89">
+        <v>59</v>
+      </c>
       <c r="B66" s="90" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C66" s="76" t="s">
-        <v>580</v>
+        <v>753</v>
       </c>
       <c r="D66" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E66" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="108" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="89">
+        <v>60</v>
+      </c>
+      <c r="B67" s="107"/>
+      <c r="C67" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="105"/>
+    </row>
+    <row r="68" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="89">
+        <v>61</v>
+      </c>
+      <c r="B68" s="161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="89">
+        <v>62</v>
+      </c>
+      <c r="B69" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="162" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="162" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="89">
+        <v>63</v>
+      </c>
+      <c r="B70" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="162" t="s">
+        <v>580</v>
+      </c>
+      <c r="D70" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="76" t="s">
+      <c r="F70" s="162" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="107"/>
-      <c r="C67" s="154" t="s">
+      <c r="G70" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="89">
+        <v>64</v>
+      </c>
+      <c r="B71" s="107"/>
+      <c r="C71" s="155" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="155"/>
-      <c r="E67" s="155"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="105"/>
-    </row>
-    <row r="68" spans="2:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
-      <c r="C68" s="154" t="s">
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="105"/>
+    </row>
+    <row r="72" spans="1:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="89">
+        <v>65</v>
+      </c>
+      <c r="B72" s="107"/>
+      <c r="C72" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="155"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="105"/>
-    </row>
-    <row r="69" spans="2:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="90" t="s">
+      <c r="D72" s="156"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="157"/>
+      <c r="G72" s="105"/>
+    </row>
+    <row r="73" spans="1:7" s="108" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="89">
+        <v>66</v>
+      </c>
+      <c r="B73" s="168" t="s">
+        <v>739</v>
+      </c>
+      <c r="C73" s="166" t="s">
+        <v>737</v>
+      </c>
+      <c r="D73" s="167" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="167" t="s">
+        <v>738</v>
+      </c>
+      <c r="F73" s="167" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="108" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="89">
+        <v>67</v>
+      </c>
+      <c r="B74" s="168" t="s">
+        <v>740</v>
+      </c>
+      <c r="C74" s="166" t="s">
+        <v>743</v>
+      </c>
+      <c r="D74" s="167" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="167" t="s">
+        <v>744</v>
+      </c>
+      <c r="F74" s="167" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="89">
+        <v>68</v>
+      </c>
+      <c r="B75" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C75" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="76" t="s">
+      <c r="D75" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="76" t="s">
+      <c r="E75" s="162" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="76" t="s">
+      <c r="F75" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="90" t="s">
+      <c r="G75" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="89">
+        <v>69</v>
+      </c>
+      <c r="B76" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="76" t="s">
+      <c r="C76" s="162" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="76" t="s">
+      <c r="D76" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="76" t="s">
+      <c r="E76" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="F70" s="76" t="s">
+      <c r="F76" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G70" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="90" t="s">
+      <c r="G76" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="89">
+        <v>70</v>
+      </c>
+      <c r="B77" s="161" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C77" s="162" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="76" t="s">
+      <c r="D77" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="76" t="s">
+      <c r="E77" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="76" t="s">
+      <c r="F77" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G71" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="90" t="s">
+      <c r="G77" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="164" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="89">
+        <v>71</v>
+      </c>
+      <c r="B78" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C78" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D78" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="76" t="s">
+      <c r="E78" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="F72" s="76" t="s">
+      <c r="F78" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G72" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="90" t="s">
+      <c r="G78" s="96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="164" customFormat="1" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="89">
+        <v>72</v>
+      </c>
+      <c r="B79" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C79" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="76" t="s">
+      <c r="D79" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="76" t="s">
+      <c r="E79" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="F73" s="76" t="s">
+      <c r="F79" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G73" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="B74" s="90" t="s">
+      <c r="G79" s="96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A80" s="89">
+        <v>73</v>
+      </c>
+      <c r="B80" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="C80" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D80" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="76" t="s">
+      <c r="E80" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F80" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G74" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="90" t="s">
+      <c r="G80" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="89">
+        <v>74</v>
+      </c>
+      <c r="B81" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C81" s="162" t="s">
         <v>226</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D81" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="76" t="s">
+      <c r="E81" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="76" t="s">
+      <c r="F81" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="90" t="s">
+      <c r="G81" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="89">
+        <v>75</v>
+      </c>
+      <c r="B82" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C82" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D82" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="76" t="s">
+      <c r="E82" s="162" t="s">
         <v>230</v>
       </c>
-      <c r="F76" s="76" t="s">
+      <c r="F82" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G76" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="B77" s="90" t="s">
+      <c r="G82" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="89">
+        <v>76</v>
+      </c>
+      <c r="B83" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C83" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D83" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="76" t="s">
+      <c r="E83" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F83" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="G77" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="90" t="s">
+      <c r="G83" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="89">
+        <v>77</v>
+      </c>
+      <c r="B84" s="161" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C84" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D84" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E84" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="F78" s="76" t="s">
+      <c r="F84" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="G78" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
-      <c r="C79" s="154" t="s">
+      <c r="G84" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="108" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="89">
+        <v>78</v>
+      </c>
+      <c r="B85" s="107"/>
+      <c r="C85" s="155" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="155"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="109">
+      <c r="D85" s="156"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="157"/>
+      <c r="G85" s="109">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="90" t="s">
+    <row r="86" spans="1:7" s="164" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="89">
+        <v>79</v>
+      </c>
+      <c r="B86" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C86" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="76" t="s">
+      <c r="D86" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="76" t="s">
+      <c r="E86" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="F80" s="76" t="s">
+      <c r="F86" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="G80" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="B81" s="90" t="s">
+      <c r="G86" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A87" s="89">
+        <v>80</v>
+      </c>
+      <c r="B87" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="76" t="s">
+      <c r="C87" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="D81" s="76" t="s">
+      <c r="D87" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="76" t="s">
+      <c r="E87" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F87" s="162" t="s">
         <v>535</v>
       </c>
-      <c r="G81" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="90" t="s">
+      <c r="G87" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="164" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="89">
+        <v>81</v>
+      </c>
+      <c r="B88" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="76" t="s">
+      <c r="C88" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="D82" s="76" t="s">
+      <c r="D88" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="76" t="s">
+      <c r="E88" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="76" t="s">
+      <c r="F88" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="G82" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="90" t="s">
+      <c r="G88" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="164" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="89">
+        <v>82</v>
+      </c>
+      <c r="B89" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C89" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D89" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E89" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F89" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="G83" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="90" t="s">
+      <c r="G89" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="164" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="89">
+        <v>83</v>
+      </c>
+      <c r="B90" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C90" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D84" s="76" t="s">
+      <c r="D90" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" s="76" t="s">
+      <c r="E90" s="77" t="s">
+        <v>750</v>
+      </c>
+      <c r="F90" s="77" t="s">
         <v>538</v>
       </c>
-      <c r="G84" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="90" t="s">
+      <c r="G90" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="164" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="89">
+        <v>84</v>
+      </c>
+      <c r="B91" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C91" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="D85" s="76" t="s">
+      <c r="D91" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F85" s="76" t="s">
+      <c r="E91" s="77" t="s">
+        <v>751</v>
+      </c>
+      <c r="F91" s="77" t="s">
         <v>532</v>
       </c>
-      <c r="G85" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="B86" s="90" t="s">
+      <c r="G91" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="164" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="89">
+        <v>85</v>
+      </c>
+      <c r="B92" s="165" t="s">
+        <v>741</v>
+      </c>
+      <c r="C92" s="166" t="s">
+        <v>747</v>
+      </c>
+      <c r="D92" s="166" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="166" t="s">
+        <v>745</v>
+      </c>
+      <c r="F92" s="166" t="s">
+        <v>536</v>
+      </c>
+      <c r="G92" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="164" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="89">
+        <v>86</v>
+      </c>
+      <c r="B93" s="165" t="s">
+        <v>742</v>
+      </c>
+      <c r="C93" s="166" t="s">
+        <v>748</v>
+      </c>
+      <c r="D93" s="166" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="166" t="s">
+        <v>746</v>
+      </c>
+      <c r="F93" s="166" t="s">
+        <v>536</v>
+      </c>
+      <c r="G93" s="96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A94" s="89">
+        <v>87</v>
+      </c>
+      <c r="B94" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="76" t="s">
+      <c r="C94" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="76" t="s">
+      <c r="D94" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="76" t="s">
+      <c r="E94" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="F86" s="76" t="s">
+      <c r="F94" s="162" t="s">
         <v>536</v>
       </c>
-      <c r="G86" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="90" t="s">
+      <c r="G94" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="89">
+        <v>88</v>
+      </c>
+      <c r="B95" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="C87" s="76" t="s">
+      <c r="C95" s="162" t="s">
         <v>255</v>
       </c>
-      <c r="D87" s="76" t="s">
+      <c r="D95" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="76" t="s">
+      <c r="E95" s="162" t="s">
         <v>256</v>
       </c>
-      <c r="F87" s="76" t="s">
+      <c r="F95" s="162" t="s">
         <v>536</v>
       </c>
-      <c r="G87" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="90" t="s">
+      <c r="G95" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="89">
+        <v>89</v>
+      </c>
+      <c r="B96" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="C88" s="76" t="s">
+      <c r="C96" s="162" t="s">
         <v>258</v>
       </c>
-      <c r="D88" s="76" t="s">
+      <c r="D96" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="76" t="s">
+      <c r="E96" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="F88" s="76" t="s">
+      <c r="F96" s="162" t="s">
         <v>536</v>
       </c>
-      <c r="G88" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="90" t="s">
+      <c r="G96" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="89">
+        <v>90</v>
+      </c>
+      <c r="B97" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C97" s="162" t="s">
         <v>261</v>
       </c>
-      <c r="D89" s="76" t="s">
+      <c r="D97" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="76" t="s">
+      <c r="E97" s="162" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="76" t="s">
+      <c r="F97" s="162" t="s">
         <v>537</v>
       </c>
-      <c r="G89" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="90" t="s">
+      <c r="G97" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="89">
+        <v>91</v>
+      </c>
+      <c r="B98" s="161" t="s">
         <v>263</v>
       </c>
-      <c r="C90" s="76" t="s">
+      <c r="C98" s="162" t="s">
         <v>264</v>
       </c>
-      <c r="D90" s="76" t="s">
+      <c r="D98" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="76" t="s">
+      <c r="E98" s="162" t="s">
         <v>265</v>
       </c>
-      <c r="F90" s="76" t="s">
+      <c r="F98" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G90" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="90" t="s">
+      <c r="G98" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="89">
+        <v>92</v>
+      </c>
+      <c r="B99" s="161" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C99" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="D91" s="76" t="s">
+      <c r="D99" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="76" t="s">
+      <c r="E99" s="162" t="s">
         <v>268</v>
       </c>
-      <c r="F91" s="76" t="s">
+      <c r="F99" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G91" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="90" t="s">
+      <c r="G99" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="89">
+        <v>93</v>
+      </c>
+      <c r="B100" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="C92" s="76" t="s">
+      <c r="C100" s="162" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="76" t="s">
+      <c r="D100" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="76" t="s">
+      <c r="E100" s="162" t="s">
         <v>271</v>
       </c>
-      <c r="F92" s="76" t="s">
+      <c r="F100" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G92" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="90" t="s">
+      <c r="G100" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="89">
+        <v>94</v>
+      </c>
+      <c r="B101" s="161" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="76" t="s">
+      <c r="C101" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="76" t="s">
+      <c r="D101" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="76" t="s">
+      <c r="E101" s="162" t="s">
         <v>274</v>
       </c>
-      <c r="F93" s="76" t="s">
+      <c r="F101" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G93" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B94" s="90" t="s">
+      <c r="G101" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="89">
+        <v>95</v>
+      </c>
+      <c r="B102" s="161" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="76" t="s">
+      <c r="C102" s="162" t="s">
         <v>276</v>
       </c>
-      <c r="D94" s="76" t="s">
+      <c r="D102" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="76" t="s">
+      <c r="E102" s="162" t="s">
         <v>277</v>
       </c>
-      <c r="F94" s="76" t="s">
+      <c r="F102" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G94" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B95" s="90" t="s">
+      <c r="G102" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="89">
+        <v>96</v>
+      </c>
+      <c r="B103" s="161" t="s">
         <v>278</v>
       </c>
-      <c r="C95" s="76" t="s">
+      <c r="C103" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="76" t="s">
+      <c r="D103" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="E103" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="F95" s="76" t="s">
+      <c r="F103" s="162" t="s">
         <v>532</v>
       </c>
-      <c r="G95" s="91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="90"/>
-      <c r="C96" s="147" t="s">
+      <c r="G103" s="91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="89">
+        <v>97</v>
+      </c>
+      <c r="B104" s="90"/>
+      <c r="C104" s="148" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="148"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="149"/>
-      <c r="G96" s="95"/>
-    </row>
-    <row r="97" spans="2:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="B97" s="90" t="s">
+      <c r="D104" s="149"/>
+      <c r="E104" s="149"/>
+      <c r="F104" s="150"/>
+      <c r="G104" s="95"/>
+    </row>
+    <row r="105" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="89">
+        <v>98</v>
+      </c>
+      <c r="B105" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C105" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="76" t="s">
+      <c r="D105" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="76" t="s">
+      <c r="E105" s="162" t="s">
         <v>287</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F105" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="G97" s="91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="B98" s="90" t="s">
+      <c r="G105" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="89">
+        <v>99</v>
+      </c>
+      <c r="B106" s="161" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="77" t="s">
+      <c r="C106" s="162" t="s">
         <v>289</v>
       </c>
-      <c r="D98" s="77" t="s">
+      <c r="D106" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E98" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="F98" s="77" t="s">
+      <c r="E106" s="162" t="s">
+        <v>749</v>
+      </c>
+      <c r="F106" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="G98" s="96" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="B99" s="90" t="s">
+      <c r="G106" s="96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="89">
+        <v>100</v>
+      </c>
+      <c r="B107" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C107" s="162" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="76" t="s">
+      <c r="D107" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="E99" s="76" t="s">
+      <c r="E107" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="F99" s="76" t="s">
+      <c r="F107" s="162" t="s">
         <v>302</v>
       </c>
-      <c r="G99" s="91" t="s">
+      <c r="G107" s="91" t="s">
         <v>307</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:G107" xr:uid="{72A4D520-F80A-4989-AC90-DC0ED1AE64D6}"/>
   <mergeCells count="12">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C104:F104"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C63:F63"/>
     <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G99">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="G9:G107">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15912,7 +16676,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
-            <xm:f>IF($F6='Чек лист'!$B1,1,0)</xm:f>
+            <xm:f>IF($F75='Чек лист'!$B64,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15921,11 +16685,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C6:C20 C24:C43 C46:C66 C69:C78 C80:C99</xm:sqref>
+          <xm:sqref>C86:C92 C75:C84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{D87AF799-F0BC-4946-ACE1-765D3FA7B33E}">
-            <xm:f>IF($C22=Worksheet!$E18,1,0)</xm:f>
+            <xm:f>IF($C86=Worksheet!$E76,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15934,11 +16698,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C21:C23 C79</xm:sqref>
+          <xm:sqref>C85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{372B34EC-737C-43FD-93A7-AE91E44A43E7}">
-            <xm:f>IF($C45=Worksheet!$E43,1,0)</xm:f>
+            <xm:f>IF($C72=Worksheet!$E66,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -15947,7 +16711,111 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C44:C45 C67:C68</xm:sqref>
+          <xm:sqref>C71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="125" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
+            <xm:f>IF($F9='Чек лист'!$B1,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C9:C23 C27:C46 C49:C63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="129" id="{D87AF799-F0BC-4946-ACE1-765D3FA7B33E}">
+            <xm:f>IF($C25=Worksheet!$E18,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C24:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="132" id="{372B34EC-737C-43FD-93A7-AE91E44A43E7}">
+            <xm:f>IF($C75=Worksheet!$E67,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="141" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
+            <xm:f>IF($F73='Чек лист'!$B63,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C73:C74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="151" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
+            <xm:f>IF($F94='Чек лист'!$B81,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C94:C107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="161" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
+            <xm:f>IF($F93='Чек лист'!$B81,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C93</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="171" id="{372B34EC-737C-43FD-93A7-AE91E44A43E7}">
+            <xm:f>IF($C48=Worksheet!$E43,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C47:C48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="175" id="{1206967F-DA46-4DC9-8436-434F35AEAA3F}">
+            <xm:f>IF($F64='Чек лист'!$B55,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C64:C70</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15957,7 +16825,7 @@
           <x14:formula1>
             <xm:f>Лист1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G99</xm:sqref>
+          <xm:sqref>G9:G107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15970,10 +16838,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F330"/>
+  <dimension ref="A2:F337"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E99"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15986,81 +16854,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-    </row>
-    <row r="4" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="183"/>
+      <c r="C3" s="116" t="s">
+        <v>761</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="183"/>
+      <c r="C4" s="185" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="186" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
+    </row>
+    <row r="6" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C6" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D6" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E6" s="114" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="118"/>
-    </row>
-    <row r="6" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="121"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="137" t="s">
-        <v>321</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>319</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>307</v>
@@ -16069,13 +16931,13 @@
     </row>
     <row r="9" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="137" t="s">
-        <v>322</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>320</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9" s="120" t="s">
         <v>307</v>
@@ -16084,129 +16946,125 @@
     </row>
     <row r="10" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="121"/>
+    </row>
+    <row r="11" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="121"/>
+    </row>
+    <row r="12" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B12" s="136" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C12" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="121"/>
-    </row>
-    <row r="11" spans="1:6" s="82" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D12" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="121"/>
+    </row>
+    <row r="13" spans="1:6" s="82" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B13" s="136" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C13" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="121" t="s">
+      <c r="D13" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="121" t="s">
         <v>692</v>
       </c>
-      <c r="F11" s="134"/>
-    </row>
-    <row r="12" spans="1:6" s="82" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="F13" s="133"/>
+    </row>
+    <row r="14" spans="1:6" s="82" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B14" s="136" t="s">
         <v>325</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C14" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="133" t="s">
+      <c r="D14" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="132" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="82" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="15" spans="1:6" s="82" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C15" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="133" t="s">
+      <c r="D15" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="132" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="115" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>686</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="121" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="137" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>307</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" s="117"/>
       <c r="E16" s="121" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="137" t="s">
-        <v>330</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="136" t="s">
+        <v>328</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D17" s="120" t="s">
         <v>307</v>
@@ -16217,30 +17075,30 @@
     </row>
     <row r="18" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="137" t="s">
-        <v>331</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>329</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D18" s="120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="137" t="s">
-        <v>332</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>330</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19" s="120" t="s">
         <v>307</v>
@@ -16249,63 +17107,67 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="82" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>333</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>331</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D20" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="135" t="s">
-        <v>734</v>
-      </c>
-      <c r="F20" s="136"/>
+      <c r="E20" s="121" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="115" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="117"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>307</v>
+      </c>
       <c r="E21" s="121" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="82" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="115" t="s">
-        <v>335</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="121" t="s">
-        <v>693</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="136" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="134" t="s">
+        <v>734</v>
+      </c>
+      <c r="F22" s="135"/>
     </row>
     <row r="23" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="121" t="s">
@@ -16314,115 +17176,111 @@
     </row>
     <row r="24" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>309</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="117"/>
       <c r="E24" s="121" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="137" t="s">
-        <v>338</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="120" t="s">
-        <v>309</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="117"/>
       <c r="E25" s="121" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="137" t="s">
-        <v>345</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>79</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="136" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E26" s="121" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="136" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E27" s="121" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="137" t="s">
-        <v>347</v>
-      </c>
-      <c r="C28" s="127" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="136" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="125" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="137" t="s">
-        <v>348</v>
-      </c>
-      <c r="C29" s="127" t="s">
-        <v>91</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E29" s="121" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="137" t="s">
-        <v>349</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="136" t="s">
+        <v>347</v>
       </c>
       <c r="C30" s="127" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D30" s="120" t="s">
         <v>307</v>
@@ -16433,13 +17291,13 @@
     </row>
     <row r="31" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="137" t="s">
-        <v>350</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="136" t="s">
+        <v>348</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D31" s="120" t="s">
         <v>307</v>
@@ -16450,13 +17308,13 @@
     </row>
     <row r="32" spans="1:6" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="137" t="s">
-        <v>351</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="136" t="s">
+        <v>349</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D32" s="120" t="s">
         <v>307</v>
@@ -16467,13 +17325,13 @@
     </row>
     <row r="33" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="137" t="s">
-        <v>352</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>350</v>
       </c>
       <c r="C33" s="127" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D33" s="120" t="s">
         <v>307</v>
@@ -16484,13 +17342,13 @@
     </row>
     <row r="34" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>353</v>
+        <v>28</v>
+      </c>
+      <c r="B34" s="136" t="s">
+        <v>351</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D34" s="120" t="s">
         <v>307</v>
@@ -16501,13 +17359,13 @@
     </row>
     <row r="35" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>31</v>
-      </c>
-      <c r="B35" s="137" t="s">
-        <v>354</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="136" t="s">
+        <v>352</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D35" s="120" t="s">
         <v>307</v>
@@ -16518,13 +17376,13 @@
     </row>
     <row r="36" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>32</v>
-      </c>
-      <c r="B36" s="137" t="s">
-        <v>355</v>
+        <v>30</v>
+      </c>
+      <c r="B36" s="136" t="s">
+        <v>353</v>
       </c>
       <c r="C36" s="127" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D36" s="120" t="s">
         <v>307</v>
@@ -16535,30 +17393,30 @@
     </row>
     <row r="37" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="137" t="s">
-        <v>356</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="136" t="s">
+        <v>354</v>
       </c>
       <c r="C37" s="127" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D37" s="120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>34</v>
-      </c>
-      <c r="B38" s="137" t="s">
-        <v>357</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="136" t="s">
+        <v>355</v>
       </c>
       <c r="C38" s="127" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D38" s="120" t="s">
         <v>307</v>
@@ -16569,28 +17427,30 @@
     </row>
     <row r="39" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>35</v>
-      </c>
-      <c r="B39" s="115" t="s">
-        <v>339</v>
-      </c>
-      <c r="C39" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="117"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="136" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="120" t="s">
+        <v>309</v>
+      </c>
       <c r="E39" s="121" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>36</v>
-      </c>
-      <c r="B40" s="137" t="s">
-        <v>340</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="136" t="s">
+        <v>357</v>
       </c>
       <c r="C40" s="127" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" s="120" t="s">
         <v>307</v>
@@ -16601,30 +17461,28 @@
     </row>
     <row r="41" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>37</v>
-      </c>
-      <c r="B41" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="120" t="s">
-        <v>307</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="117"/>
       <c r="E41" s="121" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>38</v>
-      </c>
-      <c r="B42" s="137" t="s">
-        <v>358</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="136" t="s">
+        <v>340</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D42" s="120" t="s">
         <v>307</v>
@@ -16635,13 +17493,13 @@
     </row>
     <row r="43" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>39</v>
-      </c>
-      <c r="B43" s="137" t="s">
-        <v>359</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="136" t="s">
+        <v>341</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D43" s="120" t="s">
         <v>307</v>
@@ -16652,965 +17510,1053 @@
     </row>
     <row r="44" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>40</v>
-      </c>
-      <c r="B44" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="129"/>
-      <c r="E44" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="136" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="121" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>41</v>
-      </c>
-      <c r="B45" s="115" t="s">
-        <v>343</v>
-      </c>
-      <c r="C45" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="129"/>
-      <c r="E45" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="136" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="121" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>42</v>
-      </c>
-      <c r="B46" s="137" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="121" t="s">
-        <v>699</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="129"/>
+      <c r="E46" s="118" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>43</v>
-      </c>
-      <c r="B47" s="137" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E47" s="121" t="s">
-        <v>700</v>
+        <v>41</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="129"/>
+      <c r="E47" s="118" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44</v>
-      </c>
-      <c r="B48" s="137" t="s">
-        <v>362</v>
+        <v>42</v>
+      </c>
+      <c r="B48" s="136" t="s">
+        <v>360</v>
       </c>
       <c r="C48" s="127" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D48" s="120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E48" s="121" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>45</v>
-      </c>
-      <c r="B49" s="137" t="s">
-        <v>363</v>
+        <v>43</v>
+      </c>
+      <c r="B49" s="136" t="s">
+        <v>361</v>
       </c>
       <c r="C49" s="127" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D49" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E49" s="121" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>46</v>
-      </c>
-      <c r="B50" s="137" t="s">
-        <v>364</v>
-      </c>
-      <c r="C50" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E50" s="121" t="s">
-        <v>702</v>
+        <v>44</v>
+      </c>
+      <c r="B50" s="169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" s="172" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>47</v>
-      </c>
-      <c r="B51" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="C51" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E51" s="121" t="s">
-        <v>703</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="169" t="s">
+        <v>363</v>
+      </c>
+      <c r="C51" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="172" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>48</v>
-      </c>
-      <c r="B52" s="137" t="s">
-        <v>366</v>
-      </c>
-      <c r="C52" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" s="121" t="s">
-        <v>704</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="169" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="172" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>49</v>
-      </c>
-      <c r="B53" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="C53" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E53" s="121" t="s">
-        <v>705</v>
+        <v>47</v>
+      </c>
+      <c r="B53" s="169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="170" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="172" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>50</v>
-      </c>
-      <c r="B54" s="137" t="s">
-        <v>368</v>
+        <v>48</v>
+      </c>
+      <c r="B54" s="136" t="s">
+        <v>366</v>
       </c>
       <c r="C54" s="127" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E54" s="121" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>51</v>
-      </c>
-      <c r="B55" s="137" t="s">
-        <v>369</v>
+        <v>49</v>
+      </c>
+      <c r="B55" s="136" t="s">
+        <v>367</v>
       </c>
       <c r="C55" s="127" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D55" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E55" s="121" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>52</v>
-      </c>
-      <c r="B56" s="137" t="s">
-        <v>370</v>
-      </c>
-      <c r="C56" s="127" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E56" s="121" t="s">
-        <v>708</v>
+        <v>50</v>
+      </c>
+      <c r="B56" s="169" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="170" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E56" s="172" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>53</v>
-      </c>
-      <c r="B57" s="137" t="s">
-        <v>371</v>
-      </c>
-      <c r="C57" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E57" s="121" t="s">
-        <v>709</v>
+        <v>51</v>
+      </c>
+      <c r="B57" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E57" s="172" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>54</v>
-      </c>
-      <c r="B58" s="137" t="s">
-        <v>372</v>
-      </c>
-      <c r="C58" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E58" s="121" t="s">
-        <v>710</v>
+        <v>52</v>
+      </c>
+      <c r="B58" s="169" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" s="172" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>55</v>
-      </c>
-      <c r="B59" s="137" t="s">
-        <v>373</v>
+        <v>53</v>
+      </c>
+      <c r="B59" s="136" t="s">
+        <v>371</v>
       </c>
       <c r="C59" s="127" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="D59" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E59" s="121" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>56</v>
-      </c>
-      <c r="B60" s="137" t="s">
-        <v>374</v>
-      </c>
-      <c r="C60" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E60" s="121" t="s">
-        <v>712</v>
+        <v>54</v>
+      </c>
+      <c r="B60" s="169" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" s="172" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>57</v>
-      </c>
-      <c r="B61" s="137" t="s">
-        <v>375</v>
-      </c>
-      <c r="C61" s="127" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E61" s="121" t="s">
-        <v>713</v>
+        <v>55</v>
+      </c>
+      <c r="B61" s="169" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E61" s="172" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>58</v>
-      </c>
-      <c r="B62" s="137" t="s">
-        <v>376</v>
-      </c>
-      <c r="C62" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" s="121" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B62" s="169" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="173" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>59</v>
-      </c>
-      <c r="B63" s="115" t="s">
-        <v>344</v>
-      </c>
-      <c r="C63" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="117"/>
-      <c r="E63" s="118" t="s">
-        <v>693</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B63" s="176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="177" t="s">
+        <v>754</v>
+      </c>
+      <c r="D63" s="178" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="179"/>
     </row>
     <row r="64" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>60</v>
-      </c>
-      <c r="B64" s="137" t="s">
-        <v>377</v>
+        <v>58</v>
+      </c>
+      <c r="B64" s="136" t="s">
+        <v>375</v>
       </c>
       <c r="C64" s="127" t="s">
-        <v>194</v>
+        <v>757</v>
       </c>
       <c r="D64" s="120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E64" s="121" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>61</v>
-      </c>
-      <c r="B65" s="137" t="s">
-        <v>378</v>
+        <v>59</v>
+      </c>
+      <c r="B65" s="136" t="s">
+        <v>376</v>
       </c>
       <c r="C65" s="127" t="s">
-        <v>199</v>
+        <v>758</v>
       </c>
       <c r="D65" s="120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E65" s="121" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>62</v>
-      </c>
-      <c r="B66" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="C66" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E66" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="115" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="117"/>
+      <c r="E66" s="118" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>63</v>
-      </c>
-      <c r="B67" s="115" t="s">
-        <v>380</v>
-      </c>
-      <c r="C67" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="117"/>
-      <c r="E67" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="169" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>64</v>
-      </c>
-      <c r="B68" s="115" t="s">
-        <v>381</v>
-      </c>
-      <c r="C68" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="117"/>
-      <c r="E68" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="169" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>65</v>
-      </c>
-      <c r="B69" s="137" t="s">
-        <v>382</v>
-      </c>
-      <c r="C69" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="169" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E69" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>66</v>
-      </c>
-      <c r="B70" s="137" t="s">
-        <v>383</v>
-      </c>
-      <c r="C70" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E70" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="115" t="s">
+        <v>380</v>
+      </c>
+      <c r="C70" s="128" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="117"/>
+      <c r="E70" s="118" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
+        <v>65</v>
+      </c>
+      <c r="B71" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="C71" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="117"/>
+      <c r="E71" s="118" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="82" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>66</v>
+      </c>
+      <c r="B72" s="180" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="177" t="s">
+        <v>737</v>
+      </c>
+      <c r="D72" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="E72" s="179"/>
+    </row>
+    <row r="73" spans="1:5" s="82" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>67</v>
       </c>
-      <c r="B71" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="C71" s="127" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E71" s="121" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>68</v>
-      </c>
-      <c r="B72" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="C72" s="127" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="121" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>69</v>
-      </c>
-      <c r="B73" s="137" t="s">
-        <v>386</v>
-      </c>
-      <c r="C73" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E73" s="121" t="s">
-        <v>693</v>
-      </c>
+      <c r="B73" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="177" t="s">
+        <v>743</v>
+      </c>
+      <c r="D73" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" s="179"/>
     </row>
     <row r="74" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>70</v>
-      </c>
-      <c r="B74" s="137" t="s">
-        <v>387</v>
-      </c>
-      <c r="C74" s="127" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E74" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="169" t="s">
+        <v>382</v>
+      </c>
+      <c r="C74" s="170" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>71</v>
-      </c>
-      <c r="B75" s="137" t="s">
-        <v>388</v>
-      </c>
-      <c r="C75" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E75" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="169" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>72</v>
-      </c>
-      <c r="B76" s="137" t="s">
-        <v>389</v>
-      </c>
-      <c r="C76" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E76" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="169" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>73</v>
-      </c>
-      <c r="B77" s="137" t="s">
-        <v>390</v>
-      </c>
-      <c r="C77" s="127" t="s">
-        <v>232</v>
-      </c>
-      <c r="D77" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E77" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="169" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="170" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>74</v>
-      </c>
-      <c r="B78" s="137" t="s">
-        <v>578</v>
-      </c>
-      <c r="C78" s="130" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E78" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="169" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>75</v>
-      </c>
-      <c r="B79" s="115" t="s">
-        <v>391</v>
-      </c>
-      <c r="C79" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="117"/>
-      <c r="E79" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="169" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E79" s="172" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>76</v>
-      </c>
-      <c r="B80" s="137" t="s">
-        <v>392</v>
-      </c>
-      <c r="C80" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E80" s="121" t="s">
-        <v>715</v>
+        <v>74</v>
+      </c>
+      <c r="B80" s="169" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="174" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E80" s="172" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>77</v>
-      </c>
-      <c r="B81" s="137" t="s">
-        <v>393</v>
-      </c>
-      <c r="C81" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D81" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E81" s="121" t="s">
-        <v>716</v>
+        <v>75</v>
+      </c>
+      <c r="B81" s="169" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="174" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" s="172" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>78</v>
-      </c>
-      <c r="B82" s="137" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="131" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E82" s="121" t="s">
-        <v>717</v>
+        <v>76</v>
+      </c>
+      <c r="B82" s="169" t="s">
+        <v>390</v>
+      </c>
+      <c r="C82" s="170" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E82" s="172" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>79</v>
-      </c>
-      <c r="B83" s="137" t="s">
-        <v>395</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>243</v>
-      </c>
-      <c r="D83" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E83" s="121" t="s">
-        <v>718</v>
+        <v>77</v>
+      </c>
+      <c r="B83" s="169" t="s">
+        <v>578</v>
+      </c>
+      <c r="C83" s="175" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" s="172" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>80</v>
-      </c>
-      <c r="B84" s="137" t="s">
-        <v>396</v>
-      </c>
-      <c r="C84" s="127" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E84" s="121" t="s">
-        <v>719</v>
+        <v>78</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="117"/>
+      <c r="E84" s="118" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>81</v>
-      </c>
-      <c r="B85" s="137" t="s">
-        <v>397</v>
+        <v>79</v>
+      </c>
+      <c r="B85" s="136" t="s">
+        <v>392</v>
       </c>
       <c r="C85" s="127" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="D85" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E85" s="121" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>82</v>
-      </c>
-      <c r="B86" s="137" t="s">
-        <v>398</v>
-      </c>
-      <c r="C86" s="127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D86" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E86" s="121" t="s">
-        <v>721</v>
+        <v>80</v>
+      </c>
+      <c r="B86" s="169" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" s="172" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>83</v>
-      </c>
-      <c r="B87" s="137" t="s">
-        <v>399</v>
-      </c>
-      <c r="C87" s="127" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="B87" s="136" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="130" t="s">
+        <v>240</v>
       </c>
       <c r="D87" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E87" s="121" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>84</v>
-      </c>
-      <c r="B88" s="137" t="s">
-        <v>400</v>
-      </c>
-      <c r="C88" s="127" t="s">
-        <v>258</v>
+        <v>82</v>
+      </c>
+      <c r="B88" s="136" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="130" t="s">
+        <v>243</v>
       </c>
       <c r="D88" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E88" s="121" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>85</v>
-      </c>
-      <c r="B89" s="137" t="s">
-        <v>401</v>
+        <v>83</v>
+      </c>
+      <c r="B89" s="136" t="s">
+        <v>396</v>
       </c>
       <c r="C89" s="127" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D89" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E89" s="121" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>86</v>
-      </c>
-      <c r="B90" s="137" t="s">
-        <v>402</v>
+        <v>84</v>
+      </c>
+      <c r="B90" s="136" t="s">
+        <v>397</v>
       </c>
       <c r="C90" s="127" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D90" s="120" t="s">
         <v>309</v>
       </c>
       <c r="E90" s="121" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>87</v>
-      </c>
-      <c r="B91" s="137" t="s">
-        <v>403</v>
-      </c>
-      <c r="C91" s="127" t="s">
-        <v>267</v>
-      </c>
-      <c r="D91" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E91" s="121" t="s">
-        <v>726</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B91" s="176" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" s="177" t="s">
+        <v>747</v>
+      </c>
+      <c r="D91" s="178" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="179"/>
     </row>
     <row r="92" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>88</v>
-      </c>
-      <c r="B92" s="137" t="s">
-        <v>404</v>
-      </c>
-      <c r="C92" s="127" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E92" s="121" t="s">
-        <v>727</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B92" s="176" t="s">
+        <v>399</v>
+      </c>
+      <c r="C92" s="177" t="s">
+        <v>748</v>
+      </c>
+      <c r="D92" s="178" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="179"/>
     </row>
     <row r="93" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>89</v>
-      </c>
-      <c r="B93" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="C93" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="D93" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E93" s="121" t="s">
-        <v>728</v>
+        <v>87</v>
+      </c>
+      <c r="B93" s="169" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="172" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>90</v>
-      </c>
-      <c r="B94" s="137" t="s">
-        <v>406</v>
-      </c>
-      <c r="C94" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="D94" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E94" s="121" t="s">
-        <v>729</v>
+        <v>88</v>
+      </c>
+      <c r="B94" s="169" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E94" s="172" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>91</v>
-      </c>
-      <c r="B95" s="137" t="s">
-        <v>407</v>
-      </c>
-      <c r="C95" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="121" t="s">
-        <v>730</v>
+        <v>89</v>
+      </c>
+      <c r="B95" s="169" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E95" s="172" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>92</v>
-      </c>
-      <c r="B96" s="115" t="s">
-        <v>408</v>
-      </c>
-      <c r="C96" s="132" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="117"/>
-      <c r="E96" s="121" t="s">
-        <v>693</v>
+        <v>90</v>
+      </c>
+      <c r="B96" s="169" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" s="170" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" s="172" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>93</v>
-      </c>
-      <c r="B97" s="137" t="s">
-        <v>409</v>
-      </c>
-      <c r="C97" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E97" s="121" t="s">
-        <v>693</v>
+        <v>91</v>
+      </c>
+      <c r="B97" s="169" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="172" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>94</v>
-      </c>
-      <c r="B98" s="137" t="s">
-        <v>410</v>
-      </c>
-      <c r="C98" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E98" s="121" t="s">
-        <v>693</v>
+        <v>92</v>
+      </c>
+      <c r="B98" s="169" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="172" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
+        <v>93</v>
+      </c>
+      <c r="B99" s="169" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="172" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>94</v>
+      </c>
+      <c r="B100" s="169" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="170" t="s">
+        <v>273</v>
+      </c>
+      <c r="D100" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E100" s="172" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>95</v>
       </c>
-      <c r="B99" s="137" t="s">
+      <c r="B101" s="169" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" s="170" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="172" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>96</v>
+      </c>
+      <c r="B102" s="169" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" s="170" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E102" s="172" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>97</v>
+      </c>
+      <c r="B103" s="115" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="D103" s="117"/>
+      <c r="E103" s="121" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>98</v>
+      </c>
+      <c r="B104" s="169" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E104" s="172" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>99</v>
+      </c>
+      <c r="B105" s="169" t="s">
+        <v>410</v>
+      </c>
+      <c r="C105" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="172" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="82" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>100</v>
+      </c>
+      <c r="B106" s="169" t="s">
         <v>411</v>
       </c>
-      <c r="C99" s="127" t="s">
+      <c r="C106" s="170" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="E99" s="121" t="s">
+      <c r="D106" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" s="172" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C100" s="30"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="31"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="31"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="32"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="32"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="31"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="31"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="31"/>
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C108" s="31"/>
@@ -17618,12 +18564,11 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C109" s="31"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="33"/>
-      <c r="C110" s="30"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C111" s="30"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="32"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="32"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C112" s="31"/>
@@ -17640,17 +18585,18 @@
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C116" s="31"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="31"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="31"/>
+    <row r="117" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B117" s="33"/>
+      <c r="C117" s="30"/>
+    </row>
+    <row r="118" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C119" s="31"/>
     </row>
-    <row r="120" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C120" s="30"/>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="31"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C121" s="31"/>
@@ -17667,16 +18613,14 @@
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" s="31"/>
     </row>
-    <row r="126" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="30"/>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="31"/>
     </row>
     <row r="127" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="33"/>
       <c r="C127" s="30"/>
     </row>
-    <row r="128" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C128" s="30"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="31"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C129" s="31"/>
@@ -17691,13 +18635,15 @@
       <c r="C132" s="31"/>
     </row>
     <row r="133" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="33"/>
       <c r="C133" s="30"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="31"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="31"/>
+    <row r="134" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="33"/>
+      <c r="C134" s="30"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C135" s="30"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C136" s="31"/>
@@ -17708,12 +18654,14 @@
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C138" s="31"/>
     </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="31"/>
+    </row>
     <row r="140" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
       <c r="C140" s="30"/>
     </row>
-    <row r="141" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C141" s="30"/>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="31"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C142" s="31"/>
@@ -17727,14 +18675,12 @@
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C145" s="31"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="31"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="31"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="31"/>
+    <row r="147" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" s="33"/>
+      <c r="C147" s="30"/>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C148" s="30"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C149" s="31"/>
@@ -17742,8 +18688,8 @@
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C150" s="31"/>
     </row>
-    <row r="151" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C151" s="30"/>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="31"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C152" s="31"/>
@@ -17757,15 +18703,14 @@
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C155" s="31"/>
     </row>
-    <row r="156" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="33"/>
-      <c r="C156" s="30"/>
-    </row>
-    <row r="157" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C157" s="30"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="31"/>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="31"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="31"/>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C158" s="30"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C159" s="31"/>
@@ -17780,20 +18725,20 @@
       <c r="C162" s="31"/>
     </row>
     <row r="163" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B163" s="33"/>
       <c r="C163" s="30"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="31"/>
+    <row r="164" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C164" s="30"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C165" s="31"/>
     </row>
-    <row r="166" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="33"/>
-      <c r="C166" s="30"/>
-    </row>
-    <row r="167" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C167" s="30"/>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="31"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="31"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C168" s="31"/>
@@ -17815,7 +18760,6 @@
       <c r="C173" s="30"/>
     </row>
     <row r="174" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
       <c r="C174" s="30"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -17824,8 +18768,8 @@
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C176" s="31"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="31"/>
+    <row r="177" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C177" s="30"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C178" s="31"/>
@@ -17833,18 +18777,19 @@
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C179" s="31"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="31"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="31"/>
+    <row r="180" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B180" s="33"/>
+      <c r="C180" s="30"/>
+    </row>
+    <row r="181" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B181" s="33"/>
+      <c r="C181" s="30"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C182" s="31"/>
     </row>
-    <row r="183" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="33"/>
-      <c r="C183" s="30"/>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="31"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C184" s="31"/>
@@ -17855,19 +18800,18 @@
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C186" s="31"/>
     </row>
-    <row r="187" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="33"/>
-      <c r="C187" s="30"/>
-    </row>
-    <row r="188" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="30"/>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="31"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="31"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C189" s="31"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="31"/>
+    <row r="190" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B190" s="33"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C191" s="31"/>
@@ -17882,8 +18826,9 @@
       <c r="B194" s="33"/>
       <c r="C194" s="30"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="31"/>
+    <row r="195" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B195" s="33"/>
+      <c r="C195" s="30"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C196" s="31"/>
@@ -17894,15 +18839,15 @@
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C198" s="31"/>
     </row>
-    <row r="199" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="33"/>
-      <c r="C199" s="30"/>
-    </row>
-    <row r="200" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C200" s="30"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="31"/>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="31"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="31"/>
+    </row>
+    <row r="201" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B201" s="33"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C202" s="31"/>
@@ -17916,15 +18861,15 @@
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C205" s="31"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="31"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="31"/>
-    </row>
-    <row r="208" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B208" s="33"/>
-      <c r="C208" s="30"/>
+    <row r="206" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B206" s="33"/>
+      <c r="C206" s="30"/>
+    </row>
+    <row r="207" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C207" s="30"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="31"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C209" s="31"/>
@@ -17935,19 +18880,18 @@
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C211" s="31"/>
     </row>
-    <row r="212" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="33"/>
-      <c r="C212" s="30"/>
-    </row>
-    <row r="213" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B213" s="33"/>
-      <c r="C213" s="30"/>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="31"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="31"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C214" s="31"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="31"/>
+    <row r="215" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B215" s="33"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C216" s="31"/>
@@ -17958,8 +18902,9 @@
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C218" s="31"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="31"/>
+    <row r="219" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B219" s="33"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220" s="33"/>
@@ -17980,41 +18925,41 @@
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C225" s="31"/>
     </row>
-    <row r="226" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B226" s="33"/>
-      <c r="C226" s="30"/>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="31"/>
     </row>
     <row r="227" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B227" s="33"/>
       <c r="C227" s="30"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="34"/>
+      <c r="C228" s="31"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="34"/>
+      <c r="C229" s="31"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="35"/>
+      <c r="C230" s="31"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="35"/>
+      <c r="C231" s="31"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="35"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="35"/>
+      <c r="C232" s="31"/>
+    </row>
+    <row r="233" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B233" s="33"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234" s="33"/>
-      <c r="C234" s="36"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="35"/>
+      <c r="C235" s="34"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="35"/>
+      <c r="C236" s="34"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C237" s="35"/>
@@ -18022,43 +18967,44 @@
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C238" s="35"/>
     </row>
-    <row r="239" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="30"/>
-    </row>
-    <row r="240" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B240" s="33"/>
-      <c r="C240" s="30"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="31"/>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="35"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="35"/>
+    </row>
+    <row r="241" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B241" s="33"/>
+      <c r="C241" s="36"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="31"/>
+      <c r="C242" s="35"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="31"/>
+      <c r="C243" s="35"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="31"/>
+      <c r="C244" s="35"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="31"/>
+      <c r="C245" s="35"/>
     </row>
     <row r="246" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C247" s="37"/>
-    </row>
-    <row r="248" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C248" s="37"/>
-    </row>
-    <row r="249" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C249" s="37"/>
-    </row>
-    <row r="250" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C250" s="37"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="30"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="31"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="31"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="31"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C251" s="31"/>
@@ -18066,21 +19012,20 @@
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C252" s="31"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="31"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="31"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="31"/>
+    <row r="253" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C253" s="37"/>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C254" s="37"/>
+    </row>
+    <row r="255" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C255" s="37"/>
     </row>
     <row r="256" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B256" s="33"/>
-      <c r="C256" s="30"/>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="31"/>
+      <c r="C256" s="37"/>
+    </row>
+    <row r="257" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C257" s="37"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C258" s="31"/>
@@ -18094,13 +19039,12 @@
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C261" s="31"/>
     </row>
-    <row r="262" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B262" s="33"/>
-      <c r="C262" s="38"/>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="31"/>
     </row>
     <row r="263" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263" s="33"/>
-      <c r="C263" s="38"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C264" s="31"/>
@@ -18119,10 +19063,11 @@
     </row>
     <row r="269" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269" s="33"/>
-      <c r="C269" s="30"/>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="31"/>
+      <c r="C269" s="38"/>
+    </row>
+    <row r="270" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B270" s="33"/>
+      <c r="C270" s="38"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C271" s="31"/>
@@ -18130,19 +19075,18 @@
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C272" s="31"/>
     </row>
-    <row r="273" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B273" s="33"/>
-      <c r="C273" s="30"/>
-    </row>
-    <row r="274" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="30"/>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="31"/>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="31"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C275" s="31"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="31"/>
+    <row r="276" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B276" s="33"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C277" s="31"/>
@@ -18150,20 +19094,19 @@
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C278" s="31"/>
     </row>
-    <row r="279" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B279" s="33"/>
-      <c r="C279" s="30"/>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="31"/>
     </row>
     <row r="280" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B280" s="33"/>
-      <c r="C280" s="31"/>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="31"/>
-    </row>
-    <row r="282" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="30"/>
+      <c r="C280" s="30"/>
+    </row>
+    <row r="281" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B281" s="33"/>
+      <c r="C281" s="30"/>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="31"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C283" s="31"/>
@@ -18176,9 +19119,10 @@
     </row>
     <row r="286" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B286" s="33"/>
-      <c r="C286" s="38"/>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="30"/>
+    </row>
+    <row r="287" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B287" s="33"/>
       <c r="C287" s="31"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
@@ -18188,9 +19132,8 @@
       <c r="B289" s="33"/>
       <c r="C289" s="30"/>
     </row>
-    <row r="290" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B290" s="33"/>
-      <c r="C290" s="30"/>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="31"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C291" s="31"/>
@@ -18199,46 +19142,47 @@
       <c r="C292" s="31"/>
     </row>
     <row r="293" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C293" s="30"/>
+      <c r="B293" s="33"/>
+      <c r="C293" s="38"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C294" s="31"/>
     </row>
-    <row r="295" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B295" s="33"/>
-      <c r="C295" s="30"/>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="31"/>
     </row>
     <row r="296" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B296" s="33"/>
       <c r="C296" s="30"/>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="31"/>
-    </row>
-    <row r="298" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C298" s="30"/>
+    <row r="297" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B297" s="33"/>
+      <c r="C297" s="30"/>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="31"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C299" s="31"/>
     </row>
     <row r="300" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B300" s="33"/>
       <c r="C300" s="30"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C301" s="31"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="31"/>
+    <row r="302" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B302" s="33"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B303" s="33"/>
       <c r="C303" s="30"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C304" s="31"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="31"/>
+    <row r="305" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C305" s="30"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C306" s="31"/>
@@ -18253,12 +19197,12 @@
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C309" s="31"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="31"/>
-    </row>
-    <row r="311" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B311" s="33"/>
-      <c r="C311" s="30"/>
+    <row r="310" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B310" s="33"/>
+      <c r="C310" s="30"/>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="31"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C312" s="31"/>
@@ -18266,8 +19210,9 @@
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C313" s="31"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="31"/>
+    <row r="314" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B314" s="33"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C315" s="31"/>
@@ -18278,8 +19223,9 @@
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C317" s="31"/>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="31"/>
+    <row r="318" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B318" s="33"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C319" s="31"/>
@@ -18311,30 +19257,52 @@
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C328" s="31"/>
     </row>
-    <row r="329" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="30"/>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="31"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C330" s="31"/>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="31"/>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="31"/>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="31"/>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="31"/>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="31"/>
+    </row>
+    <row r="336" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B336" s="33"/>
+      <c r="C336" s="30"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D99">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+  <phoneticPr fontId="17" type="noConversion"/>
+  <conditionalFormatting sqref="D7:D106">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" display="http://joxi.ru/v29jkgbcjRqo8A  " xr:uid="{E847CCD7-ECD0-4547-B011-BB56C361A52B}"/>
+    <hyperlink ref="E22" r:id="rId1" display="http://joxi.ru/v29jkgbcjRqo8A  " xr:uid="{E847CCD7-ECD0-4547-B011-BB56C361A52B}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId2"/>
@@ -18343,7 +19311,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
-            <xm:f>IF($C6=Worksheet!$E4,1,0)</xm:f>
+            <xm:f>IF($C75=Worksheet!$E68,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18352,24 +19320,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C5:C43 C48:C75 C78</xm:sqref>
+          <xm:sqref>C83 C74:C80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{08039DBB-2C82-4833-AE5A-9D19D1B2881A}">
-            <xm:f>IF($C45=Worksheet!$E45,1,0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C44:C45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{7E8E4342-90D6-4651-BA7A-CA73E3E70A52}">
-            <xm:f>IF($C47=Worksheet!#REF!,1,0)</xm:f>
+            <xm:f>IF($C47=Worksheet!$E45,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18379,6 +19334,19 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>C46:C47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" id="{7E8E4342-90D6-4651-BA7A-CA73E3E70A52}">
+            <xm:f>IF($C49=Worksheet!#REF!,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C48:C49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{58230081-C808-42E5-AAD3-60E0D8A5AA34}">
@@ -18391,11 +19359,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C76</xm:sqref>
+          <xm:sqref>C81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{2139CA2D-606B-4BCA-9A5E-F9B74D8A6420}">
-            <xm:f>IF($C78=Worksheet!#REF!,1,0)</xm:f>
+            <xm:f>IF($C83=Worksheet!#REF!,1,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -18404,7 +19372,72 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C77</xm:sqref>
+          <xm:sqref>C82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="198" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
+            <xm:f>IF($C8=Worksheet!$E4,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C7:C45 C50:C61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="201" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
+            <xm:f>IF($C64=Worksheet!$E59,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C62:C63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="224" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
+            <xm:f>IF($C65=Worksheet!$E60,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C64:C70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="255" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
+            <xm:f>IF($C74=Worksheet!$E67,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C71:C72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="256" id="{5CD4C482-62E1-4BE4-B697-FE401E50E524}">
+            <xm:f>IF($C75=Worksheet!$E68,1,0)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C73</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18414,7 +19447,7 @@
           <x14:formula1>
             <xm:f>Лист1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D99</xm:sqref>
+          <xm:sqref>D7:D106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18445,12 +19478,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="159" t="s">
         <v>679</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="83" t="s">
@@ -19692,11 +20725,11 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B36:C37 C40:E41 B40:B43">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"Blocked"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Passed"</formula>
@@ -19736,25 +20769,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:F63">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:K35 B37:K37 B38:F39 G39:K39 B41:K41 C42:F42 B43:K43 B44:F44 B45:K45">
-    <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
       <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
